--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="301">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة الموتور ضبط البلالين هادى السباك</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر اكتوبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء كلور لنظافة السلم</t>
   </si>
 </sst>
 </file>
@@ -2151,24 +2157,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77736192"/>
-        <c:axId val="77754368"/>
+        <c:axId val="126560896"/>
+        <c:axId val="126591360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="77736192"/>
+        <c:axId val="126560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77754368"/>
+        <c:crossAx val="126591360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77754368"/>
+        <c:axId val="126591360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2182,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77736192"/>
+        <c:crossAx val="126560896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7450,7 +7456,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7507,7 +7513,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="103">
         <f>SUM(D6:D2001)</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="103">
@@ -7824,7 +7830,9 @@
       <c r="C16" s="71">
         <v>45597</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="39">
         <v>200</v>
@@ -9396,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView rightToLeft="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9455,7 +9463,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9772,7 +9780,9 @@
       <c r="C16" s="9">
         <v>45597</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>100</v>
@@ -10623,7 +10633,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10682,7 +10692,7 @@
       <c r="C4" s="82"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -10999,7 +11009,9 @@
       <c r="C16" s="83">
         <v>45597</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="65">
+        <v>100</v>
+      </c>
       <c r="E16" s="65"/>
       <c r="F16" s="65">
         <v>100</v>
@@ -12671,7 +12683,7 @@
   <dimension ref="A2:Q105"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B73" sqref="B73:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12711,7 +12723,7 @@
       </c>
       <c r="C3" s="73">
         <f>SUM(C5:C2000)</f>
-        <v>18040</v>
+        <v>18440</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="37.5">
@@ -14325,34 +14337,63 @@
       <c r="A72" s="8">
         <v>68</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="B72" s="71">
+        <v>45596</v>
+      </c>
+      <c r="C72" s="75">
+        <v>200</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="65">
+        <v>7</v>
+      </c>
+      <c r="G72" s="65" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" s="8">
         <v>69</v>
       </c>
-      <c r="B73" s="71"/>
-      <c r="C73" s="75"/>
+      <c r="B73" s="71">
+        <v>45596</v>
+      </c>
+      <c r="C73" s="75">
+        <v>100</v>
+      </c>
       <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="E73" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="65">
+        <v>4</v>
+      </c>
+      <c r="G73" s="65" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="A74" s="8">
         <v>70</v>
       </c>
-      <c r="B74" s="71"/>
-      <c r="C74" s="75"/>
+      <c r="B74" s="71">
+        <v>45596</v>
+      </c>
+      <c r="C74" s="75">
+        <v>100</v>
+      </c>
       <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
+      <c r="E74" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="65">
+        <v>3</v>
+      </c>
+      <c r="G74" s="65" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="A75" s="8">
@@ -14513,7 +14554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -14579,15 +14620,15 @@
       <c r="B5" s="66"/>
       <c r="C5" s="90">
         <f>incomes!C3</f>
-        <v>18040</v>
+        <v>18440</v>
       </c>
       <c r="D5" s="91">
         <f>outcomes!C3</f>
-        <v>17028</v>
+        <v>17443</v>
       </c>
       <c r="E5" s="92">
         <f>(C3+C5)-D5</f>
-        <v>3738</v>
+        <v>3723</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14945,8 +14986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14981,7 +15022,7 @@
       </c>
       <c r="C3" s="73">
         <f>SUM(C5:C2002)</f>
-        <v>17028</v>
+        <v>17443</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16008,17 +16049,29 @@
       <c r="A60" s="39">
         <v>56</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="65"/>
+      <c r="B60" s="80">
+        <v>45596</v>
+      </c>
+      <c r="C60" s="75">
+        <v>400</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
       <c r="A61" s="39">
         <v>57</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="65"/>
+      <c r="B61" s="80">
+        <v>45596</v>
+      </c>
+      <c r="C61" s="75">
+        <v>15</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
       <c r="A62" s="39">
@@ -23288,11 +23341,11 @@
       </c>
       <c r="E16" s="31">
         <f>Apartment3!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F16" s="31">
         <f>Apartment4!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16" s="31">
         <f>Apartment5!D16</f>
@@ -23304,7 +23357,7 @@
       </c>
       <c r="I16" s="31">
         <f>Apartment7!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J16" s="31">
         <f>Apartment8!D16</f>
@@ -23764,12 +23817,12 @@
       </c>
       <c r="C7" s="114">
         <f>Apartment3!D4</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="115"/>
       <c r="E7" s="117">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -23791,12 +23844,12 @@
       </c>
       <c r="C8" s="114">
         <f>Apartment4!D4</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="117">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
@@ -23872,12 +23925,12 @@
       </c>
       <c r="C11" s="114">
         <f>Apartment7!D4</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D11" s="115"/>
       <c r="E11" s="117">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="320">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة   8، 9، 10 /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى 8-9-10-11 /2024</t>
   </si>
 </sst>
 </file>
@@ -1687,24 +1690,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="2"/>
     </dxf>
     <dxf>
@@ -1725,6 +1710,24 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2252,24 +2255,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120203520"/>
-        <c:axId val="120233984"/>
+        <c:axId val="154517504"/>
+        <c:axId val="154519040"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="120203520"/>
+        <c:axId val="154517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120233984"/>
+        <c:crossAx val="154519040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120233984"/>
+        <c:axId val="154519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2280,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120203520"/>
+        <c:crossAx val="154517504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,16 +2331,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q201" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q201" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:Q201"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" name="Column4" dataDxfId="4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" name="Column6" dataDxfId="2"/>
-    <tableColumn id="7" name="Column7" dataDxfId="1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" name="Column2" dataDxfId="5"/>
+    <tableColumn id="3" name="Column3" dataDxfId="4"/>
+    <tableColumn id="4" name="Column4" dataDxfId="3"/>
+    <tableColumn id="5" name="Column5" dataDxfId="2"/>
+    <tableColumn id="6" name="Column6" dataDxfId="1"/>
+    <tableColumn id="7" name="Column7" dataDxfId="0"/>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
     <tableColumn id="10" name="Column10"/>
@@ -6915,8 +6918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6973,7 +6976,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -7206,8 +7209,12 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="96">
+        <v>45606</v>
+      </c>
+      <c r="D13" s="39">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="39">
         <v>200</v>
@@ -7229,8 +7236,12 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="96">
+        <v>45606</v>
+      </c>
+      <c r="D14" s="39">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="39">
         <v>200</v>
@@ -7252,8 +7263,12 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="96">
+        <v>45606</v>
+      </c>
+      <c r="D15" s="39">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="39">
         <v>200</v>
@@ -7275,8 +7290,12 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="96">
+        <v>45606</v>
+      </c>
+      <c r="D16" s="39">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="39">
         <v>200</v>
@@ -12809,8 +12828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q201"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView rightToLeft="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12904,7 +12923,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2001)</f>
-        <v>18950</v>
+        <v>19750</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12917,7 +12936,7 @@
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
     </row>
-    <row r="5" spans="1:17" ht="37.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -15141,12 +15160,22 @@
       <c r="A77" s="64">
         <v>72</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="74"/>
+      <c r="B77" s="70">
+        <v>45606</v>
+      </c>
+      <c r="C77" s="74">
+        <v>800</v>
+      </c>
       <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
+      <c r="E77" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="64">
+        <v>8</v>
+      </c>
+      <c r="G77" s="64" t="s">
+        <v>319</v>
+      </c>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
@@ -16792,7 +16821,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>18950</v>
+        <v>19750</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -16800,7 +16829,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4233</v>
+        <v>5033</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -25347,7 +25376,7 @@
       </c>
       <c r="J13" s="31">
         <f>Apartment8!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K13" s="31">
         <f>Apartment9!D13</f>
@@ -25409,7 +25438,7 @@
       </c>
       <c r="J14" s="31">
         <f>Apartment8!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K14" s="31">
         <f>Apartment9!D14</f>
@@ -25471,7 +25500,7 @@
       </c>
       <c r="J15" s="31">
         <f>Apartment8!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="31">
         <f>Apartment9!D15</f>
@@ -25533,7 +25562,7 @@
       </c>
       <c r="J16" s="31">
         <f>Apartment8!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K16" s="31">
         <f>Apartment9!D16</f>
@@ -26124,12 +26153,12 @@
       </c>
       <c r="C12" s="113">
         <f>Apartment8!D4</f>
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="116">
         <f t="shared" si="0"/>
-        <v>-1400</v>
+        <v>-2200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>124</v>
@@ -26497,7 +26526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="322">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى 8-9-10-11 /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة الكهرباء عن شهر 11 /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء الجراج والجنينة 12 ساعة كل يوم لمبتين من عداد البيت شهر 11</t>
   </si>
 </sst>
 </file>
@@ -2255,24 +2261,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154517504"/>
-        <c:axId val="154519040"/>
+        <c:axId val="154475520"/>
+        <c:axId val="154501888"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="154517504"/>
+        <c:axId val="154475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154519040"/>
+        <c:crossAx val="154501888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154519040"/>
+        <c:axId val="154501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2286,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154517504"/>
+        <c:crossAx val="154475520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6918,8 +6924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16825,11 +16831,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>17443</v>
+        <v>17568</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5033</v>
+        <v>4908</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17187,8 +17193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17223,7 +17229,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>17443</v>
+        <v>17568</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18278,17 +18284,29 @@
       <c r="A62" s="39">
         <v>58</v>
       </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="64"/>
+      <c r="B62" s="79">
+        <v>45613</v>
+      </c>
+      <c r="C62" s="74">
+        <v>113</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
       <c r="A63" s="39">
         <v>59</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="64"/>
+      <c r="B63" s="79">
+        <v>45613</v>
+      </c>
+      <c r="C63" s="74">
+        <v>12</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
       <c r="A64" s="39">

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="325">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1009,6 +1009,15 @@
   </si>
   <si>
     <t>تحت حساب كهرباء الجراج والجنينة 12 ساعة كل يوم لمبتين من عداد البيت شهر 11</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر نوفمبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور 10 - 11 - 12 / 2014</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر اكتوبر /2024</t>
   </si>
 </sst>
 </file>
@@ -2261,24 +2270,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154475520"/>
-        <c:axId val="154501888"/>
+        <c:axId val="20295680"/>
+        <c:axId val="20297216"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="154475520"/>
+        <c:axId val="20295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154501888"/>
+        <c:crossAx val="20297216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154501888"/>
+        <c:axId val="20297216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2295,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154475520"/>
+        <c:crossAx val="20295680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2338,7 +2347,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q201" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:Q201"/>
+  <autoFilter ref="A2:Q201">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="عزة"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" name="Column2" dataDxfId="5"/>
@@ -11472,7 +11487,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11530,7 +11545,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -11847,7 +11862,9 @@
       <c r="C16" s="96">
         <v>45240</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="64">
+        <v>50</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="39">
         <v>50</v>
@@ -11872,7 +11889,9 @@
       <c r="C17" s="96">
         <v>45240</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="64">
+        <v>50</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="39">
         <v>50</v>
@@ -12834,8 +12853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q201"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12929,7 +12948,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2001)</f>
-        <v>19750</v>
+        <v>19900</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12942,7 +12961,7 @@
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75">
+    <row r="5" spans="1:17" ht="18.75" hidden="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -12975,7 +12994,7 @@
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75">
+    <row r="6" spans="1:17" ht="18.75" hidden="1">
       <c r="A6" s="64">
         <v>1</v>
       </c>
@@ -13006,7 +13025,7 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75">
+    <row r="7" spans="1:17" ht="18.75" hidden="1">
       <c r="A7" s="64">
         <v>2</v>
       </c>
@@ -13036,7 +13055,7 @@
       <c r="P7" s="63"/>
       <c r="Q7" s="63"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75">
+    <row r="8" spans="1:17" ht="18.75" hidden="1">
       <c r="A8" s="64">
         <v>3</v>
       </c>
@@ -13067,7 +13086,7 @@
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75">
+    <row r="9" spans="1:17" ht="18.75" hidden="1">
       <c r="A9" s="64">
         <v>4</v>
       </c>
@@ -13098,7 +13117,7 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75">
+    <row r="10" spans="1:17" ht="18.75" hidden="1">
       <c r="A10" s="64">
         <v>5</v>
       </c>
@@ -13129,7 +13148,7 @@
       <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75">
+    <row r="11" spans="1:17" ht="18.75" hidden="1">
       <c r="A11" s="64">
         <v>6</v>
       </c>
@@ -13160,7 +13179,7 @@
       <c r="P11" s="63"/>
       <c r="Q11" s="63"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75">
+    <row r="12" spans="1:17" ht="18.75" hidden="1">
       <c r="A12" s="64">
         <v>7</v>
       </c>
@@ -13191,7 +13210,7 @@
       <c r="P12" s="63"/>
       <c r="Q12" s="63"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75">
+    <row r="13" spans="1:17" ht="18.75" hidden="1">
       <c r="A13" s="64">
         <v>8</v>
       </c>
@@ -13221,7 +13240,7 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="63"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:17" ht="18.75" hidden="1">
       <c r="A14" s="64">
         <v>9</v>
       </c>
@@ -13252,7 +13271,7 @@
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75">
+    <row r="15" spans="1:17" ht="18.75" hidden="1">
       <c r="A15" s="64">
         <v>10</v>
       </c>
@@ -13283,7 +13302,7 @@
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:17" ht="18.75" hidden="1">
       <c r="A16" s="64">
         <v>11</v>
       </c>
@@ -13313,7 +13332,7 @@
       <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" hidden="1">
       <c r="A17" s="64">
         <v>12</v>
       </c>
@@ -13344,7 +13363,7 @@
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="1:17" ht="18.75">
+    <row r="18" spans="1:17" ht="18.75" hidden="1">
       <c r="A18" s="64">
         <v>13</v>
       </c>
@@ -13375,7 +13394,7 @@
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75">
+    <row r="19" spans="1:17" ht="18.75" hidden="1">
       <c r="A19" s="64">
         <v>14</v>
       </c>
@@ -13406,7 +13425,7 @@
       <c r="P19" s="63"/>
       <c r="Q19" s="63"/>
     </row>
-    <row r="20" spans="1:17" ht="18.75">
+    <row r="20" spans="1:17" ht="18.75" hidden="1">
       <c r="A20" s="64">
         <v>15</v>
       </c>
@@ -13436,7 +13455,7 @@
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
     </row>
-    <row r="21" spans="1:17" ht="18.75">
+    <row r="21" spans="1:17" ht="18.75" hidden="1">
       <c r="A21" s="64">
         <v>16</v>
       </c>
@@ -13467,7 +13486,7 @@
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
     </row>
-    <row r="22" spans="1:17" ht="18.75">
+    <row r="22" spans="1:17" ht="18.75" hidden="1">
       <c r="A22" s="64">
         <v>17</v>
       </c>
@@ -13498,7 +13517,7 @@
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
     </row>
-    <row r="23" spans="1:17" ht="18.75">
+    <row r="23" spans="1:17" ht="18.75" hidden="1">
       <c r="A23" s="64">
         <v>18</v>
       </c>
@@ -13529,7 +13548,7 @@
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
     </row>
-    <row r="24" spans="1:17" ht="18.75">
+    <row r="24" spans="1:17" ht="18.75" hidden="1">
       <c r="A24" s="64">
         <v>19</v>
       </c>
@@ -13560,7 +13579,7 @@
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
     </row>
-    <row r="25" spans="1:17" ht="18.75">
+    <row r="25" spans="1:17" ht="18.75" hidden="1">
       <c r="A25" s="64">
         <v>20</v>
       </c>
@@ -13590,7 +13609,7 @@
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75">
+    <row r="26" spans="1:17" ht="18.75" hidden="1">
       <c r="A26" s="64">
         <v>21</v>
       </c>
@@ -13652,7 +13671,7 @@
       <c r="P27" s="63"/>
       <c r="Q27" s="63"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75">
+    <row r="28" spans="1:17" ht="18.75" hidden="1">
       <c r="A28" s="64">
         <v>23</v>
       </c>
@@ -13683,7 +13702,7 @@
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
     </row>
-    <row r="29" spans="1:17" ht="18.75">
+    <row r="29" spans="1:17" ht="18.75" hidden="1">
       <c r="A29" s="64">
         <v>24</v>
       </c>
@@ -13745,7 +13764,7 @@
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
     </row>
-    <row r="31" spans="1:17" ht="18.75">
+    <row r="31" spans="1:17" ht="18.75" hidden="1">
       <c r="A31" s="64">
         <v>26</v>
       </c>
@@ -13775,7 +13794,7 @@
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75">
+    <row r="32" spans="1:17" ht="18.75" hidden="1">
       <c r="A32" s="64">
         <v>27</v>
       </c>
@@ -13805,7 +13824,7 @@
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
     </row>
-    <row r="33" spans="1:17" ht="18.75">
+    <row r="33" spans="1:17" ht="18.75" hidden="1">
       <c r="A33" s="64">
         <v>28</v>
       </c>
@@ -13836,7 +13855,7 @@
       <c r="P33" s="63"/>
       <c r="Q33" s="63"/>
     </row>
-    <row r="34" spans="1:17" ht="18.75">
+    <row r="34" spans="1:17" ht="18.75" hidden="1">
       <c r="A34" s="64">
         <v>29</v>
       </c>
@@ -13867,7 +13886,7 @@
       <c r="P34" s="63"/>
       <c r="Q34" s="63"/>
     </row>
-    <row r="35" spans="1:17" ht="18.75">
+    <row r="35" spans="1:17" ht="18.75" hidden="1">
       <c r="A35" s="64">
         <v>30</v>
       </c>
@@ -13898,7 +13917,7 @@
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
     </row>
-    <row r="36" spans="1:17" ht="18.75">
+    <row r="36" spans="1:17" ht="18.75" hidden="1">
       <c r="A36" s="64">
         <v>31</v>
       </c>
@@ -13928,7 +13947,7 @@
       <c r="P36" s="63"/>
       <c r="Q36" s="63"/>
     </row>
-    <row r="37" spans="1:17" ht="18.75">
+    <row r="37" spans="1:17" ht="18.75" hidden="1">
       <c r="A37" s="64">
         <v>32</v>
       </c>
@@ -13959,7 +13978,7 @@
       <c r="P37" s="63"/>
       <c r="Q37" s="63"/>
     </row>
-    <row r="38" spans="1:17" ht="18.75">
+    <row r="38" spans="1:17" ht="18.75" hidden="1">
       <c r="A38" s="64">
         <v>33</v>
       </c>
@@ -13990,7 +14009,7 @@
       <c r="P38" s="63"/>
       <c r="Q38" s="63"/>
     </row>
-    <row r="39" spans="1:17" ht="18.75">
+    <row r="39" spans="1:17" ht="18.75" hidden="1">
       <c r="A39" s="64">
         <v>34</v>
       </c>
@@ -14020,7 +14039,7 @@
       <c r="P39" s="63"/>
       <c r="Q39" s="63"/>
     </row>
-    <row r="40" spans="1:17" ht="18.75">
+    <row r="40" spans="1:17" ht="18.75" hidden="1">
       <c r="A40" s="64">
         <v>35</v>
       </c>
@@ -14051,7 +14070,7 @@
       <c r="P40" s="63"/>
       <c r="Q40" s="63"/>
     </row>
-    <row r="41" spans="1:17" ht="18.75">
+    <row r="41" spans="1:17" ht="18.75" hidden="1">
       <c r="A41" s="64">
         <v>36</v>
       </c>
@@ -14082,7 +14101,7 @@
       <c r="P41" s="63"/>
       <c r="Q41" s="63"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75">
+    <row r="42" spans="1:17" ht="18.75" hidden="1">
       <c r="A42" s="64">
         <v>37</v>
       </c>
@@ -14113,7 +14132,7 @@
       <c r="P42" s="63"/>
       <c r="Q42" s="63"/>
     </row>
-    <row r="43" spans="1:17" ht="18.75">
+    <row r="43" spans="1:17" ht="18.75" hidden="1">
       <c r="A43" s="64">
         <v>38</v>
       </c>
@@ -14143,7 +14162,7 @@
       <c r="P43" s="63"/>
       <c r="Q43" s="63"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75">
+    <row r="44" spans="1:17" ht="18.75" hidden="1">
       <c r="A44" s="64">
         <v>39</v>
       </c>
@@ -14174,7 +14193,7 @@
       <c r="P44" s="63"/>
       <c r="Q44" s="63"/>
     </row>
-    <row r="45" spans="1:17" ht="18.75">
+    <row r="45" spans="1:17" ht="18.75" hidden="1">
       <c r="A45" s="64">
         <v>40</v>
       </c>
@@ -14205,7 +14224,7 @@
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
     </row>
-    <row r="46" spans="1:17" ht="18.75">
+    <row r="46" spans="1:17" ht="18.75" hidden="1">
       <c r="A46" s="64">
         <v>41</v>
       </c>
@@ -14236,7 +14255,7 @@
       <c r="P46" s="63"/>
       <c r="Q46" s="63"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75">
+    <row r="47" spans="1:17" ht="18.75" hidden="1">
       <c r="A47" s="64">
         <v>42</v>
       </c>
@@ -14267,7 +14286,7 @@
       <c r="P47" s="63"/>
       <c r="Q47" s="63"/>
     </row>
-    <row r="48" spans="1:17" ht="18.75">
+    <row r="48" spans="1:17" ht="18.75" hidden="1">
       <c r="A48" s="64">
         <v>43</v>
       </c>
@@ -14298,7 +14317,7 @@
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75">
+    <row r="49" spans="1:17" ht="18.75" hidden="1">
       <c r="A49" s="64">
         <v>44</v>
       </c>
@@ -14328,7 +14347,7 @@
       <c r="P49" s="63"/>
       <c r="Q49" s="63"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75">
+    <row r="50" spans="1:17" ht="18.75" hidden="1">
       <c r="A50" s="64">
         <v>45</v>
       </c>
@@ -14359,7 +14378,7 @@
       <c r="P50" s="63"/>
       <c r="Q50" s="63"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75">
+    <row r="51" spans="1:17" ht="18.75" hidden="1">
       <c r="A51" s="64">
         <v>46</v>
       </c>
@@ -14421,7 +14440,7 @@
       <c r="P52" s="63"/>
       <c r="Q52" s="63"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75">
+    <row r="53" spans="1:17" ht="18.75" hidden="1">
       <c r="A53" s="64">
         <v>48</v>
       </c>
@@ -14452,7 +14471,7 @@
       <c r="P53" s="63"/>
       <c r="Q53" s="63"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75">
+    <row r="54" spans="1:17" ht="18.75" hidden="1">
       <c r="A54" s="64">
         <v>49</v>
       </c>
@@ -14483,7 +14502,7 @@
       <c r="P54" s="63"/>
       <c r="Q54" s="63"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75">
+    <row r="55" spans="1:17" ht="18.75" hidden="1">
       <c r="A55" s="64">
         <v>50</v>
       </c>
@@ -14513,7 +14532,7 @@
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75">
+    <row r="56" spans="1:17" ht="18.75" hidden="1">
       <c r="A56" s="64">
         <v>51</v>
       </c>
@@ -14544,7 +14563,7 @@
       <c r="P56" s="63"/>
       <c r="Q56" s="63"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75">
+    <row r="57" spans="1:17" ht="18.75" hidden="1">
       <c r="A57" s="64">
         <v>52</v>
       </c>
@@ -14575,7 +14594,7 @@
       <c r="P57" s="63"/>
       <c r="Q57" s="63"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75">
+    <row r="58" spans="1:17" ht="18.75" hidden="1">
       <c r="A58" s="64">
         <v>53</v>
       </c>
@@ -14606,7 +14625,7 @@
       <c r="P58" s="63"/>
       <c r="Q58" s="63"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75">
+    <row r="59" spans="1:17" ht="18.75" hidden="1">
       <c r="A59" s="64">
         <v>54</v>
       </c>
@@ -14637,7 +14656,7 @@
       <c r="P59" s="63"/>
       <c r="Q59" s="63"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75">
+    <row r="60" spans="1:17" ht="18.75" hidden="1">
       <c r="A60" s="64">
         <v>55</v>
       </c>
@@ -14668,7 +14687,7 @@
       <c r="P60" s="63"/>
       <c r="Q60" s="63"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75">
+    <row r="61" spans="1:17" ht="18.75" hidden="1">
       <c r="A61" s="64">
         <v>56</v>
       </c>
@@ -14730,7 +14749,7 @@
       <c r="P62" s="63"/>
       <c r="Q62" s="63"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75">
+    <row r="63" spans="1:17" ht="18.75" hidden="1">
       <c r="A63" s="64">
         <v>58</v>
       </c>
@@ -14761,7 +14780,7 @@
       <c r="P63" s="63"/>
       <c r="Q63" s="63"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75">
+    <row r="64" spans="1:17" ht="18.75" hidden="1">
       <c r="A64" s="64">
         <v>59</v>
       </c>
@@ -14791,7 +14810,7 @@
       <c r="P64" s="63"/>
       <c r="Q64" s="63"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75">
+    <row r="65" spans="1:17" ht="18.75" hidden="1">
       <c r="A65" s="64">
         <v>60</v>
       </c>
@@ -14822,7 +14841,7 @@
       <c r="P65" s="63"/>
       <c r="Q65" s="63"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75">
+    <row r="66" spans="1:17" ht="18.75" hidden="1">
       <c r="A66" s="64">
         <v>61</v>
       </c>
@@ -14853,7 +14872,7 @@
       <c r="P66" s="63"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75">
+    <row r="67" spans="1:17" ht="18.75" hidden="1">
       <c r="A67" s="64">
         <v>62</v>
       </c>
@@ -14884,7 +14903,7 @@
       <c r="P67" s="63"/>
       <c r="Q67" s="63"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75">
+    <row r="68" spans="1:17" ht="18.75" hidden="1">
       <c r="A68" s="64">
         <v>63</v>
       </c>
@@ -14915,7 +14934,7 @@
       <c r="P68" s="63"/>
       <c r="Q68" s="63"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75">
+    <row r="69" spans="1:17" ht="18.75" hidden="1">
       <c r="A69" s="64">
         <v>64</v>
       </c>
@@ -14946,7 +14965,7 @@
       <c r="P69" s="63"/>
       <c r="Q69" s="63"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75">
+    <row r="70" spans="1:17" ht="18.75" hidden="1">
       <c r="A70" s="64">
         <v>65</v>
       </c>
@@ -14977,7 +14996,7 @@
       <c r="P70" s="63"/>
       <c r="Q70" s="63"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75">
+    <row r="71" spans="1:17" ht="18.75" hidden="1">
       <c r="A71" s="64">
         <v>66</v>
       </c>
@@ -15008,7 +15027,7 @@
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75">
+    <row r="72" spans="1:17" ht="18.75" hidden="1">
       <c r="A72" s="64">
         <v>67</v>
       </c>
@@ -15039,7 +15058,7 @@
       <c r="P72" s="63"/>
       <c r="Q72" s="63"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75">
+    <row r="73" spans="1:17" ht="18.75" hidden="1">
       <c r="A73" s="64">
         <v>68</v>
       </c>
@@ -15069,7 +15088,7 @@
       <c r="P73" s="63"/>
       <c r="Q73" s="63"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75">
+    <row r="74" spans="1:17" ht="18.75" hidden="1">
       <c r="A74" s="64">
         <v>69</v>
       </c>
@@ -15100,7 +15119,7 @@
       <c r="P74" s="63"/>
       <c r="Q74" s="63"/>
     </row>
-    <row r="75" spans="1:17" ht="18.75">
+    <row r="75" spans="1:17" ht="18.75" hidden="1">
       <c r="A75" s="64">
         <v>70</v>
       </c>
@@ -15131,7 +15150,7 @@
       <c r="P75" s="63"/>
       <c r="Q75" s="63"/>
     </row>
-    <row r="76" spans="1:17" ht="18.75">
+    <row r="76" spans="1:17" ht="18.75" hidden="1">
       <c r="A76" s="64">
         <v>71</v>
       </c>
@@ -15162,7 +15181,7 @@
       <c r="P76" s="63"/>
       <c r="Q76" s="63"/>
     </row>
-    <row r="77" spans="1:17" ht="18.75">
+    <row r="77" spans="1:17" ht="18.75" hidden="1">
       <c r="A77" s="64">
         <v>72</v>
       </c>
@@ -15197,12 +15216,22 @@
       <c r="A78" s="64">
         <v>73</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="74"/>
+      <c r="B78" s="70">
+        <v>45624</v>
+      </c>
+      <c r="C78" s="74">
+        <v>150</v>
+      </c>
       <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
+      <c r="E78" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="64">
+        <v>2</v>
+      </c>
+      <c r="G78" s="64" t="s">
+        <v>323</v>
+      </c>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="63"/>
@@ -16761,8 +16790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16827,15 +16856,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>19750</v>
+        <v>19900</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>17568</v>
+        <v>18138</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4908</v>
+        <v>4488</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17193,8 +17222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView rightToLeft="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17229,7 +17258,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>17568</v>
+        <v>18138</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18249,7 +18278,7 @@
         <v>570</v>
       </c>
       <c r="D59" s="64" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
@@ -18312,9 +18341,15 @@
       <c r="A64" s="39">
         <v>60</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="64"/>
+      <c r="B64" s="79">
+        <v>45619</v>
+      </c>
+      <c r="C64" s="74">
+        <v>570</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
       <c r="A65" s="39">
@@ -25556,7 +25591,7 @@
       </c>
       <c r="D16" s="31">
         <f>Apartment2!D16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" s="31">
         <f>Apartment3!D16</f>
@@ -25618,7 +25653,7 @@
       </c>
       <c r="D17" s="31">
         <f>Apartment2!D17</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" s="31">
         <f>Apartment3!D17</f>
@@ -26009,12 +26044,12 @@
       </c>
       <c r="C6" s="113">
         <f>Apartment2!D4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D6" s="114"/>
       <c r="E6" s="116">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="326">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>تحت حساب فاتورة المياه عن شهر اكتوبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر ديسمبر  /2024</t>
   </si>
 </sst>
 </file>
@@ -2270,24 +2273,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="20295680"/>
-        <c:axId val="20297216"/>
+        <c:axId val="128395904"/>
+        <c:axId val="128414080"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="20295680"/>
+        <c:axId val="128395904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20297216"/>
+        <c:crossAx val="128414080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="20297216"/>
+        <c:axId val="128414080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2298,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20295680"/>
+        <c:crossAx val="128395904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2348,11 +2351,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q201" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:Q201">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="عزة"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" name="Column1" dataDxfId="6"/>
@@ -7622,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7680,7 +7679,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -8022,9 +8021,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="70">
-        <v>45625</v>
-      </c>
-      <c r="D17" s="39"/>
+        <v>45633</v>
+      </c>
+      <c r="D17" s="39">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="39">
         <v>200</v>
@@ -8923,7 +8924,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9630,7 +9631,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9971,10 +9972,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="9">
-        <v>45625</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="82">
+        <v>45633</v>
+      </c>
+      <c r="D17" s="8">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>100</v>
@@ -10800,7 +10803,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10859,7 +10862,7 @@
       <c r="C4" s="81"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -11201,9 +11204,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="82">
-        <v>45625</v>
-      </c>
-      <c r="D17" s="64"/>
+        <v>45633</v>
+      </c>
+      <c r="D17" s="64">
+        <v>100</v>
+      </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64">
         <v>100</v>
@@ -12853,8 +12858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q201"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12948,7 +12953,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2001)</f>
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12961,7 +12966,7 @@
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" hidden="1">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -12994,7 +12999,7 @@
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" hidden="1">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="64">
         <v>1</v>
       </c>
@@ -13025,7 +13030,7 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" hidden="1">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="64">
         <v>2</v>
       </c>
@@ -13055,7 +13060,7 @@
       <c r="P7" s="63"/>
       <c r="Q7" s="63"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" hidden="1">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="64">
         <v>3</v>
       </c>
@@ -13086,7 +13091,7 @@
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" hidden="1">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="64">
         <v>4</v>
       </c>
@@ -13117,7 +13122,7 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" hidden="1">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="64">
         <v>5</v>
       </c>
@@ -13148,7 +13153,7 @@
       <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" hidden="1">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="64">
         <v>6</v>
       </c>
@@ -13179,7 +13184,7 @@
       <c r="P11" s="63"/>
       <c r="Q11" s="63"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" hidden="1">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="64">
         <v>7</v>
       </c>
@@ -13210,7 +13215,7 @@
       <c r="P12" s="63"/>
       <c r="Q12" s="63"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" hidden="1">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="64">
         <v>8</v>
       </c>
@@ -13240,7 +13245,7 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="63"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" hidden="1">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="64">
         <v>9</v>
       </c>
@@ -13271,7 +13276,7 @@
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" hidden="1">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="64">
         <v>10</v>
       </c>
@@ -13302,7 +13307,7 @@
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" hidden="1">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="64">
         <v>11</v>
       </c>
@@ -13332,7 +13337,7 @@
       <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75" hidden="1">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="64">
         <v>12</v>
       </c>
@@ -13363,7 +13368,7 @@
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="1:17" ht="18.75" hidden="1">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="64">
         <v>13</v>
       </c>
@@ -13394,7 +13399,7 @@
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" hidden="1">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="64">
         <v>14</v>
       </c>
@@ -13425,7 +13430,7 @@
       <c r="P19" s="63"/>
       <c r="Q19" s="63"/>
     </row>
-    <row r="20" spans="1:17" ht="18.75" hidden="1">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="64">
         <v>15</v>
       </c>
@@ -13455,7 +13460,7 @@
       <c r="P20" s="63"/>
       <c r="Q20" s="63"/>
     </row>
-    <row r="21" spans="1:17" ht="18.75" hidden="1">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="64">
         <v>16</v>
       </c>
@@ -13486,7 +13491,7 @@
       <c r="P21" s="63"/>
       <c r="Q21" s="63"/>
     </row>
-    <row r="22" spans="1:17" ht="18.75" hidden="1">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="64">
         <v>17</v>
       </c>
@@ -13517,7 +13522,7 @@
       <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
     </row>
-    <row r="23" spans="1:17" ht="18.75" hidden="1">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="64">
         <v>18</v>
       </c>
@@ -13548,7 +13553,7 @@
       <c r="P23" s="63"/>
       <c r="Q23" s="63"/>
     </row>
-    <row r="24" spans="1:17" ht="18.75" hidden="1">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="64">
         <v>19</v>
       </c>
@@ -13579,7 +13584,7 @@
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
     </row>
-    <row r="25" spans="1:17" ht="18.75" hidden="1">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="64">
         <v>20</v>
       </c>
@@ -13609,7 +13614,7 @@
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75" hidden="1">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="64">
         <v>21</v>
       </c>
@@ -13671,7 +13676,7 @@
       <c r="P27" s="63"/>
       <c r="Q27" s="63"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" hidden="1">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="64">
         <v>23</v>
       </c>
@@ -13702,7 +13707,7 @@
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
     </row>
-    <row r="29" spans="1:17" ht="18.75" hidden="1">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="64">
         <v>24</v>
       </c>
@@ -13764,7 +13769,7 @@
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
     </row>
-    <row r="31" spans="1:17" ht="18.75" hidden="1">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="64">
         <v>26</v>
       </c>
@@ -13794,7 +13799,7 @@
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75" hidden="1">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="64">
         <v>27</v>
       </c>
@@ -13824,7 +13829,7 @@
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
     </row>
-    <row r="33" spans="1:17" ht="18.75" hidden="1">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="64">
         <v>28</v>
       </c>
@@ -13855,7 +13860,7 @@
       <c r="P33" s="63"/>
       <c r="Q33" s="63"/>
     </row>
-    <row r="34" spans="1:17" ht="18.75" hidden="1">
+    <row r="34" spans="1:17" ht="18.75">
       <c r="A34" s="64">
         <v>29</v>
       </c>
@@ -13886,7 +13891,7 @@
       <c r="P34" s="63"/>
       <c r="Q34" s="63"/>
     </row>
-    <row r="35" spans="1:17" ht="18.75" hidden="1">
+    <row r="35" spans="1:17" ht="18.75">
       <c r="A35" s="64">
         <v>30</v>
       </c>
@@ -13917,7 +13922,7 @@
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
     </row>
-    <row r="36" spans="1:17" ht="18.75" hidden="1">
+    <row r="36" spans="1:17" ht="18.75">
       <c r="A36" s="64">
         <v>31</v>
       </c>
@@ -13947,7 +13952,7 @@
       <c r="P36" s="63"/>
       <c r="Q36" s="63"/>
     </row>
-    <row r="37" spans="1:17" ht="18.75" hidden="1">
+    <row r="37" spans="1:17" ht="18.75">
       <c r="A37" s="64">
         <v>32</v>
       </c>
@@ -13978,7 +13983,7 @@
       <c r="P37" s="63"/>
       <c r="Q37" s="63"/>
     </row>
-    <row r="38" spans="1:17" ht="18.75" hidden="1">
+    <row r="38" spans="1:17" ht="18.75">
       <c r="A38" s="64">
         <v>33</v>
       </c>
@@ -14009,7 +14014,7 @@
       <c r="P38" s="63"/>
       <c r="Q38" s="63"/>
     </row>
-    <row r="39" spans="1:17" ht="18.75" hidden="1">
+    <row r="39" spans="1:17" ht="18.75">
       <c r="A39" s="64">
         <v>34</v>
       </c>
@@ -14039,7 +14044,7 @@
       <c r="P39" s="63"/>
       <c r="Q39" s="63"/>
     </row>
-    <row r="40" spans="1:17" ht="18.75" hidden="1">
+    <row r="40" spans="1:17" ht="18.75">
       <c r="A40" s="64">
         <v>35</v>
       </c>
@@ -14070,7 +14075,7 @@
       <c r="P40" s="63"/>
       <c r="Q40" s="63"/>
     </row>
-    <row r="41" spans="1:17" ht="18.75" hidden="1">
+    <row r="41" spans="1:17" ht="18.75">
       <c r="A41" s="64">
         <v>36</v>
       </c>
@@ -14101,7 +14106,7 @@
       <c r="P41" s="63"/>
       <c r="Q41" s="63"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" hidden="1">
+    <row r="42" spans="1:17" ht="18.75">
       <c r="A42" s="64">
         <v>37</v>
       </c>
@@ -14132,7 +14137,7 @@
       <c r="P42" s="63"/>
       <c r="Q42" s="63"/>
     </row>
-    <row r="43" spans="1:17" ht="18.75" hidden="1">
+    <row r="43" spans="1:17" ht="18.75">
       <c r="A43" s="64">
         <v>38</v>
       </c>
@@ -14162,7 +14167,7 @@
       <c r="P43" s="63"/>
       <c r="Q43" s="63"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" hidden="1">
+    <row r="44" spans="1:17" ht="18.75">
       <c r="A44" s="64">
         <v>39</v>
       </c>
@@ -14193,7 +14198,7 @@
       <c r="P44" s="63"/>
       <c r="Q44" s="63"/>
     </row>
-    <row r="45" spans="1:17" ht="18.75" hidden="1">
+    <row r="45" spans="1:17" ht="18.75">
       <c r="A45" s="64">
         <v>40</v>
       </c>
@@ -14224,7 +14229,7 @@
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
     </row>
-    <row r="46" spans="1:17" ht="18.75" hidden="1">
+    <row r="46" spans="1:17" ht="18.75">
       <c r="A46" s="64">
         <v>41</v>
       </c>
@@ -14255,7 +14260,7 @@
       <c r="P46" s="63"/>
       <c r="Q46" s="63"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" hidden="1">
+    <row r="47" spans="1:17" ht="18.75">
       <c r="A47" s="64">
         <v>42</v>
       </c>
@@ -14286,7 +14291,7 @@
       <c r="P47" s="63"/>
       <c r="Q47" s="63"/>
     </row>
-    <row r="48" spans="1:17" ht="18.75" hidden="1">
+    <row r="48" spans="1:17" ht="18.75">
       <c r="A48" s="64">
         <v>43</v>
       </c>
@@ -14317,7 +14322,7 @@
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" hidden="1">
+    <row r="49" spans="1:17" ht="18.75">
       <c r="A49" s="64">
         <v>44</v>
       </c>
@@ -14347,7 +14352,7 @@
       <c r="P49" s="63"/>
       <c r="Q49" s="63"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" hidden="1">
+    <row r="50" spans="1:17" ht="18.75">
       <c r="A50" s="64">
         <v>45</v>
       </c>
@@ -14378,7 +14383,7 @@
       <c r="P50" s="63"/>
       <c r="Q50" s="63"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" hidden="1">
+    <row r="51" spans="1:17" ht="18.75">
       <c r="A51" s="64">
         <v>46</v>
       </c>
@@ -14440,7 +14445,7 @@
       <c r="P52" s="63"/>
       <c r="Q52" s="63"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" hidden="1">
+    <row r="53" spans="1:17" ht="18.75">
       <c r="A53" s="64">
         <v>48</v>
       </c>
@@ -14471,7 +14476,7 @@
       <c r="P53" s="63"/>
       <c r="Q53" s="63"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" hidden="1">
+    <row r="54" spans="1:17" ht="18.75">
       <c r="A54" s="64">
         <v>49</v>
       </c>
@@ -14502,7 +14507,7 @@
       <c r="P54" s="63"/>
       <c r="Q54" s="63"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" hidden="1">
+    <row r="55" spans="1:17" ht="18.75">
       <c r="A55" s="64">
         <v>50</v>
       </c>
@@ -14532,7 +14537,7 @@
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" hidden="1">
+    <row r="56" spans="1:17" ht="18.75">
       <c r="A56" s="64">
         <v>51</v>
       </c>
@@ -14563,7 +14568,7 @@
       <c r="P56" s="63"/>
       <c r="Q56" s="63"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" hidden="1">
+    <row r="57" spans="1:17" ht="18.75">
       <c r="A57" s="64">
         <v>52</v>
       </c>
@@ -14594,7 +14599,7 @@
       <c r="P57" s="63"/>
       <c r="Q57" s="63"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" hidden="1">
+    <row r="58" spans="1:17" ht="18.75">
       <c r="A58" s="64">
         <v>53</v>
       </c>
@@ -14625,7 +14630,7 @@
       <c r="P58" s="63"/>
       <c r="Q58" s="63"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" hidden="1">
+    <row r="59" spans="1:17" ht="18.75">
       <c r="A59" s="64">
         <v>54</v>
       </c>
@@ -14656,7 +14661,7 @@
       <c r="P59" s="63"/>
       <c r="Q59" s="63"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" hidden="1">
+    <row r="60" spans="1:17" ht="18.75">
       <c r="A60" s="64">
         <v>55</v>
       </c>
@@ -14687,7 +14692,7 @@
       <c r="P60" s="63"/>
       <c r="Q60" s="63"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" hidden="1">
+    <row r="61" spans="1:17" ht="18.75">
       <c r="A61" s="64">
         <v>56</v>
       </c>
@@ -14749,7 +14754,7 @@
       <c r="P62" s="63"/>
       <c r="Q62" s="63"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" hidden="1">
+    <row r="63" spans="1:17" ht="18.75">
       <c r="A63" s="64">
         <v>58</v>
       </c>
@@ -14780,7 +14785,7 @@
       <c r="P63" s="63"/>
       <c r="Q63" s="63"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" hidden="1">
+    <row r="64" spans="1:17" ht="18.75">
       <c r="A64" s="64">
         <v>59</v>
       </c>
@@ -14810,7 +14815,7 @@
       <c r="P64" s="63"/>
       <c r="Q64" s="63"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" hidden="1">
+    <row r="65" spans="1:17" ht="18.75">
       <c r="A65" s="64">
         <v>60</v>
       </c>
@@ -14841,7 +14846,7 @@
       <c r="P65" s="63"/>
       <c r="Q65" s="63"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" hidden="1">
+    <row r="66" spans="1:17" ht="18.75">
       <c r="A66" s="64">
         <v>61</v>
       </c>
@@ -14872,7 +14877,7 @@
       <c r="P66" s="63"/>
       <c r="Q66" s="63"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" hidden="1">
+    <row r="67" spans="1:17" ht="18.75">
       <c r="A67" s="64">
         <v>62</v>
       </c>
@@ -14903,7 +14908,7 @@
       <c r="P67" s="63"/>
       <c r="Q67" s="63"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" hidden="1">
+    <row r="68" spans="1:17" ht="18.75">
       <c r="A68" s="64">
         <v>63</v>
       </c>
@@ -14934,7 +14939,7 @@
       <c r="P68" s="63"/>
       <c r="Q68" s="63"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" hidden="1">
+    <row r="69" spans="1:17" ht="18.75">
       <c r="A69" s="64">
         <v>64</v>
       </c>
@@ -14965,7 +14970,7 @@
       <c r="P69" s="63"/>
       <c r="Q69" s="63"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" hidden="1">
+    <row r="70" spans="1:17" ht="18.75">
       <c r="A70" s="64">
         <v>65</v>
       </c>
@@ -14996,7 +15001,7 @@
       <c r="P70" s="63"/>
       <c r="Q70" s="63"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" hidden="1">
+    <row r="71" spans="1:17" ht="18.75">
       <c r="A71" s="64">
         <v>66</v>
       </c>
@@ -15027,7 +15032,7 @@
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" hidden="1">
+    <row r="72" spans="1:17" ht="18.75">
       <c r="A72" s="64">
         <v>67</v>
       </c>
@@ -15058,7 +15063,7 @@
       <c r="P72" s="63"/>
       <c r="Q72" s="63"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" hidden="1">
+    <row r="73" spans="1:17" ht="18.75">
       <c r="A73" s="64">
         <v>68</v>
       </c>
@@ -15088,7 +15093,7 @@
       <c r="P73" s="63"/>
       <c r="Q73" s="63"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" hidden="1">
+    <row r="74" spans="1:17" ht="18.75">
       <c r="A74" s="64">
         <v>69</v>
       </c>
@@ -15119,7 +15124,7 @@
       <c r="P74" s="63"/>
       <c r="Q74" s="63"/>
     </row>
-    <row r="75" spans="1:17" ht="18.75" hidden="1">
+    <row r="75" spans="1:17" ht="18.75">
       <c r="A75" s="64">
         <v>70</v>
       </c>
@@ -15150,7 +15155,7 @@
       <c r="P75" s="63"/>
       <c r="Q75" s="63"/>
     </row>
-    <row r="76" spans="1:17" ht="18.75" hidden="1">
+    <row r="76" spans="1:17" ht="18.75">
       <c r="A76" s="64">
         <v>71</v>
       </c>
@@ -15181,7 +15186,7 @@
       <c r="P76" s="63"/>
       <c r="Q76" s="63"/>
     </row>
-    <row r="77" spans="1:17" ht="18.75" hidden="1">
+    <row r="77" spans="1:17" ht="18.75">
       <c r="A77" s="64">
         <v>72</v>
       </c>
@@ -15247,12 +15252,21 @@
       <c r="A79" s="64">
         <v>74</v>
       </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
+      <c r="B79" s="70">
+        <v>45633</v>
+      </c>
+      <c r="C79" s="74">
+        <v>200</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="64">
+        <v>7</v>
+      </c>
+      <c r="G79" s="64" t="s">
+        <v>325</v>
+      </c>
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="63"/>
@@ -15268,12 +15282,22 @@
       <c r="A80" s="64">
         <v>75</v>
       </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="74"/>
+      <c r="B80" s="70">
+        <v>45633</v>
+      </c>
+      <c r="C80" s="74">
+        <v>100</v>
+      </c>
       <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
+      <c r="E80" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="64">
+        <v>4</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="63"/>
@@ -15289,12 +15313,22 @@
       <c r="A81" s="64">
         <v>76</v>
       </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="74"/>
+      <c r="B81" s="70">
+        <v>45633</v>
+      </c>
+      <c r="C81" s="74">
+        <v>100</v>
+      </c>
       <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="53"/>
+      <c r="E81" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="64">
+        <v>3</v>
+      </c>
+      <c r="G81" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="63"/>
@@ -16790,7 +16824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -16856,7 +16890,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -16864,7 +16898,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4488</v>
+        <v>4888</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -25657,11 +25691,11 @@
       </c>
       <c r="E17" s="31">
         <f>Apartment3!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="31">
         <f>Apartment4!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="31">
         <f>Apartment5!D17</f>
@@ -25673,7 +25707,7 @@
       </c>
       <c r="I17" s="31">
         <f>Apartment7!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="31">
         <f>Apartment8!D17</f>
@@ -26071,12 +26105,12 @@
       </c>
       <c r="C7" s="113">
         <f>Apartment3!D4</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="114"/>
       <c r="E7" s="116">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -26098,12 +26132,12 @@
       </c>
       <c r="C8" s="113">
         <f>Apartment4!D4</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="116">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
@@ -26179,12 +26213,12 @@
       </c>
       <c r="C11" s="113">
         <f>Apartment7!D4</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="116">
         <f t="shared" si="0"/>
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1021,6 +1021,15 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر ديسمبر  /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر نوفمبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور اغسطس - سبتمبر - اكتوبر - نوفمبر /2024</t>
+  </si>
+  <si>
+    <t>خالص</t>
   </si>
 </sst>
 </file>
@@ -2273,24 +2282,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128395904"/>
-        <c:axId val="128414080"/>
+        <c:axId val="170093952"/>
+        <c:axId val="170116224"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="128395904"/>
+        <c:axId val="170093952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128414080"/>
+        <c:crossAx val="170116224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128414080"/>
+        <c:axId val="170116224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2307,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128395904"/>
+        <c:crossAx val="170093952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,8 +2358,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q201" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:Q201">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q200" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:Q200">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="17">
@@ -7621,7 +7630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12180,7 +12189,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12237,12 +12246,15 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <f>SUM(F6:F2001)</f>
         <v>1200</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -12551,8 +12563,12 @@
       <c r="B16" s="92">
         <v>11</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="96">
+        <v>45576</v>
+      </c>
+      <c r="D16" s="92">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="92">
         <v>100</v>
@@ -12574,8 +12590,12 @@
       <c r="B17" s="92">
         <v>12</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="96">
+        <v>45634</v>
+      </c>
+      <c r="D17" s="92">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="92">
         <v>100</v>
@@ -12856,10 +12876,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q201"/>
+  <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B81"/>
+    <sheetView rightToLeft="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12952,8 +12972,8 @@
         <v>9</v>
       </c>
       <c r="C4" s="72">
-        <f>SUM(C6:C2001)</f>
-        <v>20300</v>
+        <f>SUM(C6:C2000)</f>
+        <v>20400</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -15009,7 +15029,7 @@
         <v>45576</v>
       </c>
       <c r="C71" s="74">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D71" s="64"/>
       <c r="E71" s="64" t="s">
@@ -15019,7 +15039,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="64" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
@@ -15034,23 +15054,22 @@
     </row>
     <row r="72" spans="1:17" ht="18.75">
       <c r="A72" s="64">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="70">
-        <v>45576</v>
+        <v>45596</v>
       </c>
       <c r="C72" s="74">
-        <v>100</v>
-      </c>
-      <c r="D72" s="64"/>
+        <v>200</v>
+      </c>
       <c r="E72" s="64" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="F72" s="64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G72" s="64" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
@@ -15065,19 +15084,20 @@
     </row>
     <row r="73" spans="1:17" ht="18.75">
       <c r="A73" s="64">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="70">
         <v>45596</v>
       </c>
       <c r="C73" s="74">
-        <v>200</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D73" s="64"/>
       <c r="E73" s="64" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="F73" s="64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G73" s="64" t="s">
         <v>249</v>
@@ -15095,7 +15115,7 @@
     </row>
     <row r="74" spans="1:17" ht="18.75">
       <c r="A74" s="64">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="70">
         <v>45596</v>
@@ -15105,10 +15125,10 @@
       </c>
       <c r="D74" s="64"/>
       <c r="E74" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F74" s="64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74" s="64" t="s">
         <v>249</v>
@@ -15126,23 +15146,23 @@
     </row>
     <row r="75" spans="1:17" ht="18.75">
       <c r="A75" s="64">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" s="70">
-        <v>45596</v>
+        <v>45602</v>
       </c>
       <c r="C75" s="74">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="D75" s="64"/>
       <c r="E75" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="64">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="F75" s="64" t="s">
+        <v>217</v>
       </c>
       <c r="G75" s="64" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
@@ -15157,23 +15177,23 @@
     </row>
     <row r="76" spans="1:17" ht="18.75">
       <c r="A76" s="64">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" s="70">
-        <v>45602</v>
+        <v>45606</v>
       </c>
       <c r="C76" s="74">
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="D76" s="64"/>
       <c r="E76" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="64" t="s">
-        <v>217</v>
+        <v>190</v>
+      </c>
+      <c r="F76" s="64">
+        <v>8</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
@@ -15188,23 +15208,23 @@
     </row>
     <row r="77" spans="1:17" ht="18.75">
       <c r="A77" s="64">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" s="70">
-        <v>45606</v>
+        <v>45624</v>
       </c>
       <c r="C77" s="74">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="D77" s="64"/>
       <c r="E77" s="64" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="F77" s="64">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
@@ -15219,23 +15239,22 @@
     </row>
     <row r="78" spans="1:17" ht="18.75">
       <c r="A78" s="64">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" s="70">
-        <v>45624</v>
+        <v>45633</v>
       </c>
       <c r="C78" s="74">
-        <v>150</v>
-      </c>
-      <c r="D78" s="64"/>
+        <v>200</v>
+      </c>
       <c r="E78" s="64" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="F78" s="64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G78" s="64" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
@@ -15250,22 +15269,23 @@
     </row>
     <row r="79" spans="1:17" ht="18.75">
       <c r="A79" s="64">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="70">
         <v>45633</v>
       </c>
       <c r="C79" s="74">
+        <v>100</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" s="64">
+        <v>4</v>
+      </c>
+      <c r="G79" s="64" t="s">
         <v>200</v>
-      </c>
-      <c r="E79" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="64">
-        <v>7</v>
-      </c>
-      <c r="G79" s="64" t="s">
-        <v>325</v>
       </c>
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
@@ -15280,7 +15300,7 @@
     </row>
     <row r="80" spans="1:17" ht="18.75">
       <c r="A80" s="64">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80" s="70">
         <v>45633</v>
@@ -15290,10 +15310,10 @@
       </c>
       <c r="D80" s="64"/>
       <c r="E80" s="64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" s="64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="64" t="s">
         <v>200</v>
@@ -15311,20 +15331,20 @@
     </row>
     <row r="81" spans="1:17" ht="18.75">
       <c r="A81" s="64">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" s="70">
-        <v>45633</v>
+        <v>45576</v>
       </c>
       <c r="C81" s="74">
         <v>100</v>
       </c>
       <c r="D81" s="64"/>
       <c r="E81" s="64" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="F81" s="64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" s="64" t="s">
         <v>200</v>
@@ -15342,7 +15362,7 @@
     </row>
     <row r="82" spans="1:17" ht="18.75">
       <c r="A82" s="64">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G82" s="64"/>
       <c r="H82" s="63"/>
@@ -15357,9 +15377,6 @@
       <c r="Q82" s="63"/>
     </row>
     <row r="83" spans="1:17" ht="18.75">
-      <c r="A83" s="64">
-        <v>78</v>
-      </c>
       <c r="G83" s="64"/>
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
@@ -15658,8 +15675,7 @@
       <c r="P105" s="63"/>
       <c r="Q105" s="63"/>
     </row>
-    <row r="106" spans="7:17" ht="18.75">
-      <c r="G106" s="64"/>
+    <row r="106" spans="7:17">
       <c r="H106" s="63"/>
       <c r="I106" s="63"/>
       <c r="J106" s="63"/>
@@ -16798,18 +16814,6 @@
       <c r="O200" s="63"/>
       <c r="P200" s="63"/>
       <c r="Q200" s="63"/>
-    </row>
-    <row r="201" spans="8:17">
-      <c r="H201" s="63"/>
-      <c r="I201" s="63"/>
-      <c r="J201" s="63"/>
-      <c r="K201" s="63"/>
-      <c r="L201" s="63"/>
-      <c r="M201" s="63"/>
-      <c r="N201" s="63"/>
-      <c r="O201" s="63"/>
-      <c r="P201" s="63"/>
-      <c r="Q201" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16890,15 +16894,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>18138</v>
+        <v>18568</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4888</v>
+        <v>4558</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17257,7 +17261,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17292,7 +17296,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>18138</v>
+        <v>18568</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18389,17 +18393,29 @@
       <c r="A65" s="39">
         <v>61</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="64"/>
+      <c r="B65" s="79">
+        <v>45634</v>
+      </c>
+      <c r="C65" s="74">
+        <v>400</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
       <c r="A66" s="39">
         <v>62</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="64"/>
+      <c r="B66" s="79">
+        <v>45634</v>
+      </c>
+      <c r="C66" s="74">
+        <v>30</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
       <c r="A67" s="39">
@@ -19933,7 +19949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20017,14 +20033,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="113">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="114">
         <v>100</v>
       </c>
       <c r="E5" s="116">
         <f>D5-C5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
@@ -24874,7 +24890,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25621,7 +25637,7 @@
       </c>
       <c r="C16" s="31">
         <f>Apartment1!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="31">
         <f>Apartment2!D16</f>
@@ -25683,7 +25699,7 @@
       </c>
       <c r="C17" s="31">
         <f>Apartment1!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" s="31">
         <f>Apartment2!D17</f>
@@ -26051,12 +26067,12 @@
       </c>
       <c r="C5" s="113">
         <f>Apartment1!D4</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="116">
         <f>D5-C5</f>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>51</v>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="334">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1030,6 +1030,21 @@
   </si>
   <si>
     <t>خالص</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور من اكتوبر حتى ديسمبر / 2024</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر يناير</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر فبراير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحت حساب اصلاح ماسورة الصرف الخاصة بهم فقط </t>
+  </si>
+  <si>
+    <t>تحت حساب اصلاح وتغيير الجزء الاخير لماسورة الصرف الخاصة بسامى شقة 5 وتم شراء ماسورة وتفلون واسمنت ورمل وكوع ب 800جنيه واخذ مصنعية 400جنيه، وتحمل سامى مبلغ 500جنيه وتحمل الصيانة 700جنيه من الصندوق</t>
   </si>
 </sst>
 </file>
@@ -2282,24 +2297,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="170093952"/>
-        <c:axId val="170116224"/>
+        <c:axId val="152604672"/>
+        <c:axId val="152606208"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="170093952"/>
+        <c:axId val="152604672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170116224"/>
+        <c:crossAx val="152606208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170116224"/>
+        <c:axId val="152606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2322,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170093952"/>
+        <c:crossAx val="152604672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6141,7 +6156,7 @@
   <dimension ref="A2:V37"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6206,7 +6221,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2004)</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -6275,7 +6290,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>146</v>
+        <v>330</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6309,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>147</v>
+        <v>331</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6577,9 +6592,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="70">
-        <v>45243</v>
-      </c>
-      <c r="D15" s="74"/>
+        <v>45634</v>
+      </c>
+      <c r="D15" s="74">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="64">
         <v>100</v>
@@ -6607,9 +6624,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="70">
-        <v>45243</v>
-      </c>
-      <c r="D16" s="74"/>
+        <v>45634</v>
+      </c>
+      <c r="D16" s="74">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="64">
         <v>100</v>
@@ -6632,9 +6651,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="70">
-        <v>45243</v>
-      </c>
-      <c r="D17" s="74"/>
+        <v>45634</v>
+      </c>
+      <c r="D17" s="74">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="64">
         <v>100</v>
@@ -12878,8 +12899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView rightToLeft="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12973,7 +12994,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -15364,7 +15385,21 @@
       <c r="A82" s="64">
         <v>78</v>
       </c>
-      <c r="G82" s="64"/>
+      <c r="B82" s="70">
+        <v>45634</v>
+      </c>
+      <c r="C82" s="74">
+        <v>300</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="64">
+        <v>9</v>
+      </c>
+      <c r="G82" s="64" t="s">
+        <v>329</v>
+      </c>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="63"/>
@@ -15377,7 +15412,24 @@
       <c r="Q82" s="63"/>
     </row>
     <row r="83" spans="1:17" ht="18.75">
-      <c r="G83" s="64"/>
+      <c r="A83" s="64">
+        <v>79</v>
+      </c>
+      <c r="B83" s="70">
+        <v>45646</v>
+      </c>
+      <c r="C83" s="74">
+        <v>500</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="64">
+        <v>5</v>
+      </c>
+      <c r="G83" s="64" t="s">
+        <v>332</v>
+      </c>
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="63"/>
@@ -15390,6 +15442,9 @@
       <c r="Q83" s="63"/>
     </row>
     <row r="84" spans="1:17" ht="18.75">
+      <c r="A84" s="64">
+        <v>80</v>
+      </c>
       <c r="G84" s="64"/>
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
@@ -15403,6 +15458,9 @@
       <c r="Q84" s="63"/>
     </row>
     <row r="85" spans="1:17" ht="18.75">
+      <c r="A85" s="64">
+        <v>81</v>
+      </c>
       <c r="G85" s="64"/>
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
@@ -15416,6 +15474,9 @@
       <c r="Q85" s="63"/>
     </row>
     <row r="86" spans="1:17" ht="18.75">
+      <c r="A86" s="64">
+        <v>82</v>
+      </c>
       <c r="G86" s="64"/>
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
@@ -15429,6 +15490,9 @@
       <c r="Q86" s="63"/>
     </row>
     <row r="87" spans="1:17" ht="18.75">
+      <c r="A87" s="64">
+        <v>83</v>
+      </c>
       <c r="G87" s="64"/>
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
@@ -15442,6 +15506,9 @@
       <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="1:17" ht="18.75">
+      <c r="A88" s="64">
+        <v>84</v>
+      </c>
       <c r="G88" s="64"/>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
@@ -15455,6 +15522,9 @@
       <c r="Q88" s="63"/>
     </row>
     <row r="89" spans="1:17" ht="18.75">
+      <c r="A89" s="64">
+        <v>85</v>
+      </c>
       <c r="G89" s="64"/>
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
@@ -15468,6 +15538,9 @@
       <c r="Q89" s="63"/>
     </row>
     <row r="90" spans="1:17" ht="18.75">
+      <c r="A90" s="64">
+        <v>86</v>
+      </c>
       <c r="G90" s="64"/>
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
@@ -15481,6 +15554,9 @@
       <c r="Q90" s="63"/>
     </row>
     <row r="91" spans="1:17" ht="18.75">
+      <c r="A91" s="64">
+        <v>87</v>
+      </c>
       <c r="G91" s="64"/>
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
@@ -15494,6 +15570,9 @@
       <c r="Q91" s="63"/>
     </row>
     <row r="92" spans="1:17" ht="18.75">
+      <c r="A92" s="64">
+        <v>88</v>
+      </c>
       <c r="G92" s="64"/>
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
@@ -15507,6 +15586,9 @@
       <c r="Q92" s="63"/>
     </row>
     <row r="93" spans="1:17" ht="18.75">
+      <c r="A93" s="64">
+        <v>89</v>
+      </c>
       <c r="G93" s="64"/>
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
@@ -15520,6 +15602,9 @@
       <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="18.75">
+      <c r="A94" s="64">
+        <v>90</v>
+      </c>
       <c r="G94" s="64"/>
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
@@ -16894,15 +16979,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>18568</v>
+        <v>19888</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4558</v>
+        <v>4038</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17260,8 +17345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17296,7 +17381,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>18568</v>
+        <v>19888</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18421,33 +18506,57 @@
       <c r="A67" s="39">
         <v>63</v>
       </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="64"/>
+      <c r="B67" s="79">
+        <v>45633</v>
+      </c>
+      <c r="C67" s="74">
+        <v>105</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
       <c r="A68" s="39">
         <v>64</v>
       </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="64"/>
+      <c r="B68" s="79">
+        <v>45633</v>
+      </c>
+      <c r="C68" s="74">
+        <v>5</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
       <c r="A69" s="39">
         <v>65</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="64"/>
+      <c r="B69" s="79">
+        <v>45633</v>
+      </c>
+      <c r="C69" s="74">
+        <v>10</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
       <c r="A70" s="39">
         <v>66</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="64"/>
+      <c r="B70" s="79">
+        <v>45646</v>
+      </c>
+      <c r="C70" s="74">
+        <v>1200</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
       <c r="A71" s="39">
@@ -19949,7 +20058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -25607,7 +25716,7 @@
       </c>
       <c r="K15" s="31">
         <f>Apartment9!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="31">
         <f>Apartment10!D15</f>
@@ -25669,7 +25778,7 @@
       </c>
       <c r="K16" s="31">
         <f>Apartment9!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16" s="31">
         <f>Apartment10!D16</f>
@@ -25731,7 +25840,7 @@
       </c>
       <c r="K17" s="31">
         <f>Apartment9!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="31">
         <f>Apartment10!D17</f>
@@ -26283,12 +26392,12 @@
       </c>
       <c r="C13" s="113">
         <f>Apartment9!D4</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="114"/>
       <c r="E13" s="116">
         <f t="shared" si="0"/>
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>54</v>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="339">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -483,12 +483,6 @@
     <t>لسنة 2023</t>
   </si>
   <si>
-    <t>حساب صيانة شهر يناير /2023</t>
-  </si>
-  <si>
-    <t>حساب صيانة شهر فبراير /2023</t>
-  </si>
-  <si>
     <t>تحت حساب صيانة شهر مارس /2023</t>
   </si>
   <si>
@@ -1045,6 +1039,27 @@
   </si>
   <si>
     <t>تحت حساب اصلاح وتغيير الجزء الاخير لماسورة الصرف الخاصة بسامى شقة 5 وتم شراء ماسورة وتفلون واسمنت ورمل وكوع ب 800جنيه واخذ مصنعية 400جنيه، وتحمل سامى مبلغ 500جنيه وتحمل الصيانة 700جنيه من الصندوق</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور اكتوبر - نوفمبر - ديسمبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب تغيير اللمبة الفلوريسنت بلمبة ليد، وشراء لمبة ليد ب 35ج ودواية ديكور ب 25ج</t>
+  </si>
+  <si>
+    <t>تحت حساب الكهربائى لتغيير اللمبة عند ا/ عبد المجيد</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر ديسمبر /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر ديسمبر /2024</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر يناير /2024</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر فبراير /2024</t>
   </si>
 </sst>
 </file>
@@ -2297,24 +2312,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152604672"/>
-        <c:axId val="152606208"/>
+        <c:axId val="149629952"/>
+        <c:axId val="149652224"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="152604672"/>
+        <c:axId val="149629952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152606208"/>
+        <c:crossAx val="149652224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152606208"/>
+        <c:axId val="149652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2337,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152604672"/>
+        <c:crossAx val="149629952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3401,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView rightToLeft="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3515,7 +3530,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3818,7 +3833,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4685,7 +4700,7 @@
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75">
@@ -4826,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F17"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4935,7 +4950,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4958,7 +4973,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5579,7 +5594,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5882,7 +5897,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -6290,7 +6305,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6324,7 +6339,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7081,7 +7096,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7108,7 +7123,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7135,7 +7150,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7162,7 +7177,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7189,7 +7204,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7216,7 +7231,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7243,7 +7258,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7351,7 +7366,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7374,7 +7389,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7764,7 +7779,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7791,7 +7806,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7818,7 +7833,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7845,7 +7860,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7872,7 +7887,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7899,7 +7914,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7926,7 +7941,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7953,7 +7968,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7980,7 +7995,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8007,7 +8022,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8034,7 +8049,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8061,7 +8076,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9066,7 +9081,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9091,7 +9106,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9770,7 +9785,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9797,7 +9812,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9824,7 +9839,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9851,7 +9866,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9878,7 +9893,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9905,7 +9920,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9932,7 +9947,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9959,7 +9974,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9986,7 +10001,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10013,7 +10028,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11001,7 +11016,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11028,7 +11043,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11055,7 +11070,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11082,7 +11097,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11109,7 +11124,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11136,7 +11151,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11163,7 +11178,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11190,7 +11205,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11217,7 +11232,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11244,7 +11259,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11635,7 +11650,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11662,7 +11677,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11689,7 +11704,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11716,7 +11731,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11743,7 +11758,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11770,7 +11785,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11797,7 +11812,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11824,7 +11839,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11851,7 +11866,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11878,7 +11893,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11905,7 +11920,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11932,7 +11947,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12275,7 +12290,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -12325,7 +12340,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -12352,7 +12367,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12379,7 +12394,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -12406,7 +12421,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -12433,7 +12448,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -12460,7 +12475,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12487,7 +12502,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12514,7 +12529,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12541,7 +12556,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12568,7 +12583,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12595,7 +12610,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12622,7 +12637,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12899,8 +12914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView rightToLeft="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12917,55 +12932,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="D2" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="E2" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="G2" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="H2" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="I2" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="J2" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="K2" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="L2" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="M2" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="O2" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="P2" s="122" t="s">
         <v>314</v>
       </c>
-      <c r="O2" s="122" t="s">
+      <c r="Q2" s="122" t="s">
         <v>315</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q2" s="122" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -13052,13 +13067,13 @@
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="64">
         <v>12</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -13088,7 +13103,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -13113,13 +13128,13 @@
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="64">
         <v>4</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -13144,13 +13159,13 @@
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="64">
         <v>3</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -13175,13 +13190,13 @@
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" s="64">
         <v>10</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -13206,13 +13221,13 @@
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="64">
         <v>8</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -13237,13 +13252,13 @@
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="64">
         <v>5</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -13273,7 +13288,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -13298,13 +13313,13 @@
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" s="64">
         <v>4</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -13329,13 +13344,13 @@
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="64">
         <v>3</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -13365,7 +13380,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -13390,13 +13405,13 @@
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="64">
         <v>4</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -13421,13 +13436,13 @@
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="64">
         <v>3</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -13452,13 +13467,13 @@
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F19" s="64">
         <v>1</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -13488,7 +13503,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -13513,13 +13528,13 @@
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="64">
         <v>4</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -13544,13 +13559,13 @@
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="64">
         <v>3</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -13575,13 +13590,13 @@
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="64">
         <v>12</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -13606,13 +13621,13 @@
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="64" t="s">
-        <v>217</v>
-      </c>
       <c r="G24" s="64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -13636,13 +13651,13 @@
         <v>50</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F25" s="64">
         <v>4</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -13667,13 +13682,13 @@
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F26" s="64">
         <v>3</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -13698,13 +13713,13 @@
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F27" s="64">
         <v>2</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -13735,7 +13750,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -13760,13 +13775,13 @@
       </c>
       <c r="D29" s="64"/>
       <c r="E29" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F29" s="64">
         <v>8</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -13791,13 +13806,13 @@
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F30" s="64">
         <v>2</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -13821,13 +13836,13 @@
         <v>200</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -13857,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -13882,13 +13897,13 @@
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F33" s="64">
         <v>4</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -13913,13 +13928,13 @@
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F34" s="64">
         <v>3</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -13944,13 +13959,13 @@
       </c>
       <c r="D35" s="64"/>
       <c r="E35" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F35" s="64">
         <v>10</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
@@ -13974,13 +13989,13 @@
         <v>100</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="64">
         <v>12</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
@@ -14005,13 +14020,13 @@
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" s="64">
         <v>8</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
@@ -14036,13 +14051,13 @@
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F38" s="64">
         <v>5</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
@@ -14072,7 +14087,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
@@ -14097,13 +14112,13 @@
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F40" s="64">
         <v>4</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
@@ -14128,13 +14143,13 @@
       </c>
       <c r="D41" s="64"/>
       <c r="E41" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F41" s="64">
         <v>3</v>
       </c>
       <c r="G41" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="63"/>
@@ -14159,13 +14174,13 @@
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F42" s="64">
         <v>9</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -14195,7 +14210,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -14220,13 +14235,13 @@
       </c>
       <c r="D44" s="64"/>
       <c r="E44" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F44" s="64">
         <v>4</v>
       </c>
       <c r="G44" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -14251,13 +14266,13 @@
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F45" s="64">
         <v>3</v>
       </c>
       <c r="G45" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -14282,13 +14297,13 @@
       </c>
       <c r="D46" s="64"/>
       <c r="E46" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F46" s="64">
         <v>12</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
@@ -14313,13 +14328,13 @@
       </c>
       <c r="D47" s="64"/>
       <c r="E47" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F47" s="64">
         <v>1</v>
       </c>
       <c r="G47" s="64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
@@ -14344,13 +14359,13 @@
       </c>
       <c r="D48" s="64"/>
       <c r="E48" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F48" s="64">
         <v>8</v>
       </c>
       <c r="G48" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
@@ -14380,7 +14395,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
@@ -14405,13 +14420,13 @@
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F50" s="64">
         <v>4</v>
       </c>
       <c r="G50" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
@@ -14436,13 +14451,13 @@
       </c>
       <c r="D51" s="64"/>
       <c r="E51" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F51" s="64">
         <v>3</v>
       </c>
       <c r="G51" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="63"/>
@@ -14467,13 +14482,13 @@
       </c>
       <c r="D52" s="64"/>
       <c r="E52" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F52" s="64">
         <v>2</v>
       </c>
       <c r="G52" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
@@ -14498,13 +14513,13 @@
       </c>
       <c r="D53" s="64"/>
       <c r="E53" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="64" t="s">
-        <v>217</v>
-      </c>
       <c r="G53" s="64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
@@ -14529,13 +14544,13 @@
       </c>
       <c r="D54" s="64"/>
       <c r="E54" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F54" s="64">
         <v>5</v>
       </c>
       <c r="G54" s="64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
@@ -14565,7 +14580,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
@@ -14590,13 +14605,13 @@
       </c>
       <c r="D56" s="64"/>
       <c r="E56" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F56" s="64">
         <v>4</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
@@ -14621,13 +14636,13 @@
       </c>
       <c r="D57" s="64"/>
       <c r="E57" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F57" s="64">
         <v>3</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -14652,13 +14667,13 @@
       </c>
       <c r="D58" s="64"/>
       <c r="E58" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F58" s="64">
         <v>9</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
@@ -14683,13 +14698,13 @@
       </c>
       <c r="D59" s="64"/>
       <c r="E59" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F59" s="64">
         <v>4</v>
       </c>
       <c r="G59" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
@@ -14714,13 +14729,13 @@
       </c>
       <c r="D60" s="64"/>
       <c r="E60" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F60" s="64">
         <v>3</v>
       </c>
       <c r="G60" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
@@ -14745,13 +14760,13 @@
       </c>
       <c r="D61" s="64"/>
       <c r="E61" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F61" s="64">
         <v>8</v>
       </c>
       <c r="G61" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
@@ -14776,13 +14791,13 @@
       </c>
       <c r="D62" s="64"/>
       <c r="E62" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F62" s="64">
         <v>2</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
@@ -14807,13 +14822,13 @@
       </c>
       <c r="D63" s="64"/>
       <c r="E63" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="64" t="s">
-        <v>217</v>
-      </c>
       <c r="G63" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
@@ -14843,7 +14858,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
@@ -14868,13 +14883,13 @@
       </c>
       <c r="D65" s="64"/>
       <c r="E65" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" s="64">
         <v>4</v>
       </c>
       <c r="G65" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
@@ -14899,13 +14914,13 @@
       </c>
       <c r="D66" s="64"/>
       <c r="E66" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F66" s="64">
         <v>3</v>
       </c>
       <c r="G66" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
@@ -14930,13 +14945,13 @@
       </c>
       <c r="D67" s="64"/>
       <c r="E67" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F67" s="64">
         <v>10</v>
       </c>
       <c r="G67" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
@@ -14961,13 +14976,13 @@
       </c>
       <c r="D68" s="64"/>
       <c r="E68" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F68" s="64">
         <v>10</v>
       </c>
       <c r="G68" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
@@ -14992,13 +15007,13 @@
       </c>
       <c r="D69" s="64"/>
       <c r="E69" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F69" s="64">
         <v>12</v>
       </c>
       <c r="G69" s="64" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
@@ -15023,13 +15038,13 @@
       </c>
       <c r="D70" s="64"/>
       <c r="E70" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F70" s="64">
         <v>12</v>
       </c>
       <c r="G70" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
@@ -15054,13 +15069,13 @@
       </c>
       <c r="D71" s="64"/>
       <c r="E71" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F71" s="64">
         <v>1</v>
       </c>
       <c r="G71" s="64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
@@ -15090,7 +15105,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
@@ -15115,13 +15130,13 @@
       </c>
       <c r="D73" s="64"/>
       <c r="E73" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F73" s="64">
         <v>4</v>
       </c>
       <c r="G73" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
@@ -15146,13 +15161,13 @@
       </c>
       <c r="D74" s="64"/>
       <c r="E74" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F74" s="64">
         <v>3</v>
       </c>
       <c r="G74" s="64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
@@ -15177,13 +15192,13 @@
       </c>
       <c r="D75" s="64"/>
       <c r="E75" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="F75" s="64" t="s">
-        <v>217</v>
-      </c>
       <c r="G75" s="64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
@@ -15208,13 +15223,13 @@
       </c>
       <c r="D76" s="64"/>
       <c r="E76" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F76" s="64">
         <v>8</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
@@ -15239,13 +15254,13 @@
       </c>
       <c r="D77" s="64"/>
       <c r="E77" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F77" s="64">
         <v>2</v>
       </c>
       <c r="G77" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
@@ -15275,7 +15290,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
@@ -15300,13 +15315,13 @@
       </c>
       <c r="D79" s="64"/>
       <c r="E79" s="64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F79" s="64">
         <v>4</v>
       </c>
       <c r="G79" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
@@ -15331,13 +15346,13 @@
       </c>
       <c r="D80" s="64"/>
       <c r="E80" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F80" s="64">
         <v>3</v>
       </c>
       <c r="G80" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
@@ -15362,13 +15377,13 @@
       </c>
       <c r="D81" s="64"/>
       <c r="E81" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F81" s="64">
         <v>1</v>
       </c>
       <c r="G81" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
@@ -15392,13 +15407,13 @@
         <v>300</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F82" s="64">
         <v>9</v>
       </c>
       <c r="G82" s="64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
@@ -15422,13 +15437,13 @@
         <v>500</v>
       </c>
       <c r="E83" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F83" s="64">
         <v>5</v>
       </c>
       <c r="G83" s="64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
@@ -15445,6 +15460,11 @@
       <c r="A84" s="64">
         <v>80</v>
       </c>
+      <c r="B84" s="70"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="64"/>
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
@@ -16946,7 +16966,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="86">
         <v>2726</v>
@@ -16983,11 +17003,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>19888</v>
+        <v>21018</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4038</v>
+        <v>2908</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17345,8 +17365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView rightToLeft="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17381,7 +17401,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>19888</v>
+        <v>21018</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17404,7 +17424,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="S4" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
@@ -17418,7 +17438,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -17440,7 +17460,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -17464,7 +17484,7 @@
         <v>375</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -17491,7 +17511,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -17515,7 +17535,7 @@
         <v>570</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -17537,7 +17557,7 @@
         <v>300</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -17561,7 +17581,7 @@
         <v>441</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -17585,7 +17605,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -17603,7 +17623,7 @@
         <v>570</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -17620,7 +17640,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -17637,7 +17657,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -17660,7 +17680,7 @@
         <v>400</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -17677,7 +17697,7 @@
         <v>408</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -17700,7 +17720,7 @@
         <v>570</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -17723,7 +17743,7 @@
         <v>400</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -17742,7 +17762,7 @@
         <v>388</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -17769,7 +17789,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -17792,7 +17812,7 @@
         <v>570</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -17815,7 +17835,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -17838,7 +17858,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -17861,7 +17881,7 @@
         <v>1075</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -17881,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -17898,7 +17918,7 @@
         <v>400</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -17921,7 +17941,7 @@
         <v>400</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -17941,7 +17961,7 @@
         <v>326</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -17961,7 +17981,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -17981,7 +18001,7 @@
         <v>1000</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -18001,7 +18021,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -18021,7 +18041,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -18030,7 +18050,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="T33" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75">
@@ -18044,7 +18064,7 @@
         <v>383</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -18064,7 +18084,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
@@ -18078,7 +18098,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
@@ -18092,7 +18112,7 @@
         <v>1140</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75">
@@ -18106,7 +18126,7 @@
         <v>400</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -18120,7 +18140,7 @@
         <v>240</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75">
@@ -18134,7 +18154,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -18149,7 +18169,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
@@ -18163,7 +18183,7 @@
         <v>570</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
@@ -18177,7 +18197,7 @@
         <v>400</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
@@ -18191,7 +18211,7 @@
         <v>135</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
@@ -18205,7 +18225,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75">
@@ -18219,7 +18239,7 @@
         <v>570</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
@@ -18233,7 +18253,7 @@
         <v>2000</v>
       </c>
       <c r="D47" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
@@ -18247,7 +18267,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
@@ -18261,7 +18281,7 @@
         <v>400</v>
       </c>
       <c r="D49" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -18275,7 +18295,7 @@
         <v>162</v>
       </c>
       <c r="D50" s="64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -18289,7 +18309,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75">
@@ -18303,7 +18323,7 @@
         <v>400</v>
       </c>
       <c r="D52" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
@@ -18317,7 +18337,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
@@ -18331,7 +18351,7 @@
         <v>570</v>
       </c>
       <c r="D54" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75">
@@ -18345,7 +18365,7 @@
         <v>149</v>
       </c>
       <c r="D55" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
@@ -18359,7 +18379,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75">
@@ -18373,7 +18393,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75">
@@ -18387,7 +18407,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
@@ -18401,7 +18421,7 @@
         <v>570</v>
       </c>
       <c r="D59" s="64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
@@ -18415,7 +18435,7 @@
         <v>400</v>
       </c>
       <c r="D60" s="64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
@@ -18429,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
@@ -18443,7 +18463,7 @@
         <v>113</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
@@ -18457,7 +18477,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
@@ -18471,7 +18491,7 @@
         <v>570</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
@@ -18485,7 +18505,7 @@
         <v>400</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
@@ -18499,7 +18519,7 @@
         <v>30</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
@@ -18513,7 +18533,7 @@
         <v>105</v>
       </c>
       <c r="D67" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
@@ -18527,7 +18547,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
@@ -18541,7 +18561,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
@@ -18555,40 +18575,64 @@
         <v>1200</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
       <c r="A71" s="39">
         <v>67</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="64"/>
+      <c r="B71" s="79">
+        <v>45656</v>
+      </c>
+      <c r="C71" s="74">
+        <v>400</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="18.75">
       <c r="A72" s="39">
         <v>68</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="64"/>
+      <c r="B72" s="79">
+        <v>45656</v>
+      </c>
+      <c r="C72" s="74">
+        <v>60</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="18.75">
       <c r="A73" s="39">
         <v>69</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="64"/>
+      <c r="B73" s="79">
+        <v>45656</v>
+      </c>
+      <c r="C73" s="74">
+        <v>100</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="18.75">
       <c r="A74" s="39">
         <v>70</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="64"/>
+      <c r="B74" s="79">
+        <v>45655</v>
+      </c>
+      <c r="C74" s="74">
+        <v>570</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="18.75">
       <c r="A75" s="39">
@@ -18781,7 +18825,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="63"/>
     </row>
@@ -18790,7 +18834,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18798,7 +18842,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -18806,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -18814,7 +18858,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -18822,7 +18866,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -18830,7 +18874,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -18838,7 +18882,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -18846,7 +18890,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -19446,7 +19490,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -19464,7 +19508,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -19546,7 +19590,7 @@
         <v>45407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -19573,7 +19617,7 @@
         <v>45407</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -19600,7 +19644,7 @@
         <v>45406</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -19627,7 +19671,7 @@
         <v>45406</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -19650,7 +19694,7 @@
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -19677,7 +19721,7 @@
         <v>45406</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -19704,7 +19748,7 @@
         <v>45434</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -19727,7 +19771,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -19754,7 +19798,7 @@
         <v>45416</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -19777,7 +19821,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -19804,7 +19848,7 @@
         <v>45416</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -19831,7 +19875,7 @@
         <v>45409</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -19858,7 +19902,7 @@
         <v>45409</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -20076,7 +20120,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -20094,7 +20138,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -20153,7 +20197,7 @@
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -20178,7 +20222,7 @@
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -20203,7 +20247,7 @@
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -20228,7 +20272,7 @@
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -20251,7 +20295,7 @@
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -20276,7 +20320,7 @@
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -20299,7 +20343,7 @@
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -20324,7 +20368,7 @@
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -20349,7 +20393,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -20374,7 +20418,7 @@
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -20397,7 +20441,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -20422,7 +20466,7 @@
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -20447,7 +20491,7 @@
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -20472,7 +20516,7 @@
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -26852,7 +26896,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -27145,7 +27189,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="340">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>حساب صيانة شهر فبراير /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب فلوس الصيانة لسنة 2024 والحساب ليها خالص</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,9 +1671,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
@@ -2312,24 +2312,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="149629952"/>
-        <c:axId val="149652224"/>
+        <c:axId val="156908160"/>
+        <c:axId val="156926336"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="149629952"/>
+        <c:axId val="156908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149652224"/>
+        <c:crossAx val="156926336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149652224"/>
+        <c:axId val="156926336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2337,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149629952"/>
+        <c:crossAx val="156908160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2721,23 +2721,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="103"/>
@@ -3432,23 +3432,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -4122,23 +4122,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="76"/>
@@ -4561,14 +4561,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="134" t="s">
+      <c r="I20" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -4579,14 +4579,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="134" t="s">
+      <c r="I21" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -4624,13 +4624,13 @@
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
       <c r="Q23" s="63"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -4645,13 +4645,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
       <c r="Q24" s="63"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -4666,13 +4666,13 @@
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">
@@ -4841,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4856,23 +4856,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -4899,7 +4899,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="110">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -4944,7 +4944,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="111"/>
+      <c r="D6" s="111">
+        <v>100</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>100</v>
@@ -4967,7 +4969,9 @@
         <v>2</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="111"/>
+      <c r="D7" s="111">
+        <v>100</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="64">
         <v>100</v>
@@ -4990,7 +4994,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="111"/>
+      <c r="D8" s="111">
+        <v>100</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="64">
         <v>100</v>
@@ -5013,7 +5019,9 @@
         <v>4</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="111"/>
+      <c r="D9" s="111">
+        <v>100</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="64">
         <v>100</v>
@@ -5036,7 +5044,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="111"/>
+      <c r="D10" s="111">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="64">
         <v>100</v>
@@ -5059,7 +5069,9 @@
         <v>6</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="111"/>
+      <c r="D11" s="111">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="64">
         <v>100</v>
@@ -5082,7 +5094,9 @@
         <v>7</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="112"/>
+      <c r="D12" s="111">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="64">
         <v>100</v>
@@ -5105,7 +5119,9 @@
         <v>8</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="112"/>
+      <c r="D13" s="111">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="64">
         <v>100</v>
@@ -5128,7 +5144,9 @@
         <v>9</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="112"/>
+      <c r="D14" s="111">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="64">
         <v>100</v>
@@ -5151,7 +5169,9 @@
         <v>10</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="111">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="64">
         <v>100</v>
@@ -5174,7 +5194,9 @@
         <v>11</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="112"/>
+      <c r="D16" s="111">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="64">
         <v>100</v>
@@ -5197,7 +5219,9 @@
         <v>12</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="112"/>
+      <c r="D17" s="111">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="64">
         <v>100</v>
@@ -5496,23 +5520,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="67"/>
@@ -6186,23 +6210,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="57.75">
       <c r="C3" s="76"/>
@@ -6221,16 +6245,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="124" t="s">
+      <c r="O3" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
     </row>
     <row r="4" spans="1:22" ht="18.75">
       <c r="C4" s="68"/>
@@ -6280,12 +6304,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="127"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="126"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -6524,10 +6548,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="128"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="130"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="129"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -6998,23 +7022,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -7681,23 +7705,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="76"/>
@@ -8368,23 +8392,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -8983,23 +9007,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -9633,23 +9657,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -10321,29 +10345,29 @@
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
       <c r="N2" s="46"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="90" customHeight="1">
       <c r="C3" s="11"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
       <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:18" ht="56.25">
@@ -10365,10 +10389,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="16"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
       <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
@@ -10449,10 +10473,10 @@
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="48"/>
     </row>
@@ -10864,26 +10888,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
-      <c r="C3" s="119"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
@@ -10891,17 +10915,17 @@
       <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
       <c r="C4" s="81"/>
@@ -11552,23 +11576,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -12239,23 +12263,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -12914,8 +12938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:G84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12934,74 +12958,74 @@
       <c r="A2" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="121" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="L2" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="M2" s="121" t="s">
         <v>311</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="N2" s="121" t="s">
         <v>312</v>
       </c>
-      <c r="O2" s="122" t="s">
+      <c r="O2" s="121" t="s">
         <v>313</v>
       </c>
-      <c r="P2" s="122" t="s">
+      <c r="P2" s="121" t="s">
         <v>314</v>
       </c>
-      <c r="Q2" s="122" t="s">
+      <c r="Q2" s="121" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
       <c r="B4" s="68" t="s">
@@ -13009,7 +13033,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>21200</v>
+        <v>22400</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -15460,12 +15484,22 @@
       <c r="A84" s="64">
         <v>80</v>
       </c>
-      <c r="B84" s="70"/>
-      <c r="C84" s="74"/>
+      <c r="B84" s="70">
+        <v>45656</v>
+      </c>
+      <c r="C84" s="74">
+        <v>1200</v>
+      </c>
       <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
+      <c r="E84" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="64">
+        <v>11</v>
+      </c>
+      <c r="G84" s="64" t="s">
+        <v>339</v>
+      </c>
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="63"/>
@@ -16948,21 +16982,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
@@ -16999,7 +17033,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>21200</v>
+        <v>22400</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -17007,7 +17041,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>2908</v>
+        <v>4108</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17379,21 +17413,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="26.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="B3" s="77" t="s">
@@ -18105,7 +18139,7 @@
       <c r="A37" s="39">
         <v>33</v>
       </c>
-      <c r="B37" s="121">
+      <c r="B37" s="120">
         <v>45467</v>
       </c>
       <c r="C37" s="74">
@@ -18931,14 +18965,14 @@
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
       <c r="N2" s="46"/>
       <c r="O2" s="22"/>
     </row>
@@ -18971,12 +19005,12 @@
       <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="I4" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
       <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
@@ -19074,10 +19108,10 @@
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="48"/>
     </row>
@@ -19483,44 +19517,44 @@
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="85" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="115"/>
+    <col min="5" max="5" width="9.140625" style="114"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -19555,11 +19589,11 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114">
+      <c r="C5" s="112"/>
+      <c r="D5" s="113">
         <v>50</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="115">
         <f>D5-C5</f>
         <v>50</v>
       </c>
@@ -19576,13 +19610,13 @@
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="112">
         <v>50</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="113">
         <v>50</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="115">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>0</v>
       </c>
@@ -19603,13 +19637,13 @@
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="112">
         <v>50</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="113">
         <v>50</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19630,13 +19664,13 @@
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="112">
         <v>50</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="113">
         <v>50</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19657,13 +19691,13 @@
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="112">
         <v>100</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="113">
         <v>100</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19684,11 +19718,11 @@
       <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114">
+      <c r="C10" s="112"/>
+      <c r="D10" s="113">
         <v>100</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="115">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -19707,13 +19741,13 @@
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="112">
         <v>100</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="113">
         <v>100</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19734,13 +19768,13 @@
       <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="112">
         <v>100</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="113">
         <v>100</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19761,11 +19795,11 @@
       <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114">
+      <c r="C13" s="112"/>
+      <c r="D13" s="113">
         <v>100</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="115">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -19784,13 +19818,13 @@
       <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="112">
         <v>100</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="113">
         <v>100</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19811,11 +19845,11 @@
       <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114">
+      <c r="C15" s="112"/>
+      <c r="D15" s="113">
         <v>100</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="115">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -19834,13 +19868,13 @@
       <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="112">
         <v>100</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="113">
         <v>100</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19861,13 +19895,13 @@
       <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="112">
         <v>100</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="113">
         <v>100</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19888,13 +19922,13 @@
       <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="112">
         <v>100</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="113">
         <v>100</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19913,7 +19947,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="117"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -19925,7 +19959,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="117"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -19937,7 +19971,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="117"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -19949,7 +19983,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="117"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -19961,7 +19995,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -19973,7 +20007,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -19985,7 +20019,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="117"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -19997,7 +20031,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="117"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -20009,7 +20043,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="117"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -20021,7 +20055,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="117"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -20033,7 +20067,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="117"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -20045,7 +20079,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="117"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -20057,7 +20091,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="117"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -20069,7 +20103,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="117"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -20081,7 +20115,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="117"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -20112,45 +20146,45 @@
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="85" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="115"/>
+    <col min="5" max="5" width="9.140625" style="114"/>
     <col min="6" max="6" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="130" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -20185,13 +20219,13 @@
       <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="112">
         <v>0</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="113">
         <v>100</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="115">
         <f>D5-C5</f>
         <v>100</v>
       </c>
@@ -20210,13 +20244,13 @@
       <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="112">
         <v>100</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="113">
         <v>100</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="115">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>0</v>
       </c>
@@ -20235,13 +20269,13 @@
       <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="112">
         <v>100</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="113">
         <v>100</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20260,13 +20294,13 @@
       <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="112">
         <v>100</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="113">
         <v>100</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20285,11 +20319,11 @@
       <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114">
+      <c r="C9" s="112"/>
+      <c r="D9" s="113">
         <v>200</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="115">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -20308,13 +20342,13 @@
       <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="112">
         <v>200</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="113">
         <v>200</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20333,11 +20367,11 @@
       <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114">
+      <c r="C11" s="112"/>
+      <c r="D11" s="113">
         <v>200</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="115">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -20356,13 +20390,13 @@
       <c r="B12" s="64">
         <v>8</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="112">
         <v>200</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="113">
         <v>200</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20381,13 +20415,13 @@
       <c r="B13" s="64">
         <v>9</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="112">
         <v>200</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="113">
         <v>200</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20406,13 +20440,13 @@
       <c r="B14" s="64">
         <v>10</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="112">
         <v>200</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="113">
         <v>200</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20431,11 +20465,11 @@
       <c r="B15" s="64">
         <v>11</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114">
+      <c r="C15" s="112"/>
+      <c r="D15" s="113">
         <v>200</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="115">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -20454,13 +20488,13 @@
       <c r="B16" s="64">
         <v>12</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="112">
         <v>200</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="113">
         <v>200</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20479,13 +20513,13 @@
       <c r="B17" s="64">
         <v>13</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="112">
         <v>200</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="113">
         <v>200</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20504,13 +20538,13 @@
       <c r="B18" s="64">
         <v>14</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="112">
         <v>200</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="113">
         <v>200</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20527,7 +20561,7 @@
       <c r="B19" s="64"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="117"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -20539,7 +20573,7 @@
       <c r="B20" s="64"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="117"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -20551,7 +20585,7 @@
       <c r="B21" s="64"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="117"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -20563,7 +20597,7 @@
       <c r="B22" s="64"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="117"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -20575,7 +20609,7 @@
       <c r="B23" s="64"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -20587,7 +20621,7 @@
       <c r="B24" s="64"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -20599,7 +20633,7 @@
       <c r="B25" s="64"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="117"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -20611,7 +20645,7 @@
       <c r="B26" s="64"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="117"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -20623,7 +20657,7 @@
       <c r="B27" s="64"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="117"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -20635,7 +20669,7 @@
       <c r="B28" s="64"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="117"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -20647,7 +20681,7 @@
       <c r="B29" s="64"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="117"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -20659,7 +20693,7 @@
       <c r="B30" s="64"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="117"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -20671,7 +20705,7 @@
       <c r="B31" s="64"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="117"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -20683,7 +20717,7 @@
       <c r="B32" s="64"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="117"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -20695,7 +20729,7 @@
       <c r="B33" s="64"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="117"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -20730,38 +20764,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="26.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
     </row>
     <row r="3" spans="1:32" ht="18.75">
       <c r="B3" s="10"/>
@@ -25058,37 +25092,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="26"/>
@@ -25210,7 +25244,7 @@
       </c>
       <c r="M6" s="31">
         <f>Apartment11!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N6" s="31">
         <f>Apartment12!D6</f>
@@ -25272,7 +25306,7 @@
       </c>
       <c r="M7" s="31">
         <f>Apartment11!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N7" s="31">
         <f>Apartment12!D7</f>
@@ -25334,7 +25368,7 @@
       </c>
       <c r="M8" s="31">
         <f>Apartment11!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="31">
         <f>Apartment12!D8</f>
@@ -25396,7 +25430,7 @@
       </c>
       <c r="M9" s="31">
         <f>Apartment11!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="31">
         <f>Apartment12!D9</f>
@@ -25458,7 +25492,7 @@
       </c>
       <c r="M10" s="31">
         <f>Apartment11!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="31">
         <f>Apartment12!D10</f>
@@ -25520,7 +25554,7 @@
       </c>
       <c r="M11" s="31">
         <f>Apartment11!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" s="31">
         <f>Apartment12!D11</f>
@@ -25582,7 +25616,7 @@
       </c>
       <c r="M12" s="31">
         <f>Apartment11!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="31">
         <f>Apartment12!D12</f>
@@ -25644,7 +25678,7 @@
       </c>
       <c r="M13" s="31">
         <f>Apartment11!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N13" s="31">
         <f>Apartment12!D13</f>
@@ -25706,7 +25740,7 @@
       </c>
       <c r="M14" s="31">
         <f>Apartment11!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="31">
         <f>Apartment12!D14</f>
@@ -25768,7 +25802,7 @@
       </c>
       <c r="M15" s="31">
         <f>Apartment11!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="31">
         <f>Apartment12!D15</f>
@@ -25830,7 +25864,7 @@
       </c>
       <c r="M16" s="31">
         <f>Apartment11!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N16" s="31">
         <f>Apartment12!D16</f>
@@ -25892,7 +25926,7 @@
       </c>
       <c r="M17" s="31">
         <f>Apartment11!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="31">
         <f>Apartment12!D17</f>
@@ -26151,35 +26185,35 @@
     <col min="1" max="2" width="4.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="85" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="115"/>
+    <col min="5" max="5" width="9.140625" style="114"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="102"/>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -26218,21 +26252,21 @@
       <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="112">
         <f>Apartment1!D4</f>
         <v>1200</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="116">
+      <c r="D5" s="113"/>
+      <c r="E5" s="115">
         <f>D5-C5</f>
         <v>-1200</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="116">
+      <c r="G5" s="112"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="115">
         <f>H5-G5</f>
         <v>0</v>
       </c>
@@ -26245,21 +26279,21 @@
       <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="112">
         <f>Apartment2!D4</f>
         <v>600</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="116">
+      <c r="D6" s="113"/>
+      <c r="E6" s="115">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>-600</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="116">
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="115">
         <f t="shared" ref="I6:I18" si="1">H6-G6</f>
         <v>0</v>
       </c>
@@ -26272,21 +26306,21 @@
       <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="112">
         <f>Apartment3!D4</f>
         <v>1200</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="116">
+      <c r="D7" s="113"/>
+      <c r="E7" s="115">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="116">
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26299,21 +26333,21 @@
       <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="112">
         <f>Apartment4!D4</f>
         <v>1200</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116">
+      <c r="D8" s="113"/>
+      <c r="E8" s="115">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="116">
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26326,21 +26360,21 @@
       <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="112">
         <f>Apartment5!D4</f>
         <v>1600</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="116">
+      <c r="D9" s="113"/>
+      <c r="E9" s="115">
         <f t="shared" si="0"/>
         <v>-1600</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="116">
+      <c r="G9" s="112"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26353,21 +26387,21 @@
       <c r="B10" s="23">
         <v>6</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="112">
         <f>Apartment6!D4</f>
         <v>0</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="116">
+      <c r="D10" s="113"/>
+      <c r="E10" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116">
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26380,21 +26414,21 @@
       <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="112">
         <f>Apartment7!D4</f>
         <v>2400</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="116">
+      <c r="D11" s="113"/>
+      <c r="E11" s="115">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="116">
+      <c r="G11" s="112"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26407,21 +26441,21 @@
       <c r="B12" s="23">
         <v>8</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="112">
         <f>Apartment8!D4</f>
         <v>2200</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="116">
+      <c r="D12" s="113"/>
+      <c r="E12" s="115">
         <f t="shared" si="0"/>
         <v>-2200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="116">
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26434,21 +26468,21 @@
       <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="112">
         <f>Apartment9!D4</f>
         <v>1200</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="116">
+      <c r="D13" s="113"/>
+      <c r="E13" s="115">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="116">
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26461,21 +26495,21 @@
       <c r="B14" s="23">
         <v>10</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="112">
         <f>Apartment10!D4</f>
         <v>2400</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="116">
+      <c r="D14" s="113"/>
+      <c r="E14" s="115">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="116">
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26488,21 +26522,21 @@
       <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="112">
         <f>Apartment11!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="116">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="113"/>
+      <c r="E15" s="115">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="116">
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26515,20 +26549,20 @@
       <c r="B16" s="23">
         <v>12</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="112">
         <v>0</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="116">
+      <c r="D16" s="113"/>
+      <c r="E16" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="116">
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26541,21 +26575,21 @@
       <c r="B17" s="23">
         <v>13</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="112">
         <f>Apartment13!D4</f>
         <v>850</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="116">
+      <c r="D17" s="113"/>
+      <c r="E17" s="115">
         <f t="shared" si="0"/>
         <v>-850</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="116">
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26568,21 +26602,21 @@
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="112">
         <f>Apartment14!D4</f>
         <v>850</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="116">
+      <c r="D18" s="113"/>
+      <c r="E18" s="115">
         <f t="shared" si="0"/>
         <v>-850</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="116">
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26593,7 +26627,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="117"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -26605,7 +26639,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="117"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -26617,7 +26651,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="117"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -26629,7 +26663,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="117"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -26641,7 +26675,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -26653,7 +26687,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -26665,7 +26699,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="117"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -26677,7 +26711,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="117"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -26689,7 +26723,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="117"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -26701,7 +26735,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="117"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -26713,7 +26747,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="117"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -26725,7 +26759,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="117"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -26737,7 +26771,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="117"/>
+      <c r="E31" s="116"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -26749,7 +26783,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="117"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -26761,7 +26795,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="117"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -26798,23 +26832,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="109"/>
@@ -27074,7 +27108,7 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="119">
         <v>45250</v>
       </c>
       <c r="D13" s="39">
@@ -27101,7 +27135,7 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="119">
         <v>45250</v>
       </c>
       <c r="D14" s="39">

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="342">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1063,6 +1063,12 @@
   </si>
   <si>
     <t>تحت حساب فلوس الصيانة لسنة 2024 والحساب ليها خالص</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة 11 ، 12 /2024  الحساب خالص</t>
+  </si>
+  <si>
+    <t>الحساب خالص</t>
   </si>
 </sst>
 </file>
@@ -2312,24 +2318,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156908160"/>
-        <c:axId val="156926336"/>
+        <c:axId val="166017280"/>
+        <c:axId val="166035456"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="156908160"/>
+        <c:axId val="166017280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156926336"/>
+        <c:crossAx val="166035456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156926336"/>
+        <c:axId val="166035456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2343,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156908160"/>
+        <c:crossAx val="166017280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4106,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,7 +4171,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -4482,7 +4488,9 @@
       <c r="C16" s="70">
         <v>45259</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>85</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>85</v>
@@ -4507,7 +4515,9 @@
       <c r="C17" s="70">
         <v>45291</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39">
+        <v>85</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>85</v>
@@ -4518,7 +4528,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
@@ -12938,8 +12950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView rightToLeft="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13033,7 +13045,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>22400</v>
+        <v>22740</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -15515,7 +15527,21 @@
       <c r="A85" s="64">
         <v>81</v>
       </c>
-      <c r="G85" s="64"/>
+      <c r="B85" s="70">
+        <v>45659</v>
+      </c>
+      <c r="C85" s="74">
+        <v>340</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>340</v>
+      </c>
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="63"/>
@@ -15531,6 +15557,8 @@
       <c r="A86" s="64">
         <v>82</v>
       </c>
+      <c r="B86" s="70"/>
+      <c r="C86" s="74"/>
       <c r="G86" s="64"/>
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
@@ -15547,6 +15575,8 @@
       <c r="A87" s="64">
         <v>83</v>
       </c>
+      <c r="B87" s="70"/>
+      <c r="C87" s="74"/>
       <c r="G87" s="64"/>
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
@@ -15563,6 +15593,8 @@
       <c r="A88" s="64">
         <v>84</v>
       </c>
+      <c r="B88" s="70"/>
+      <c r="C88" s="74"/>
       <c r="G88" s="64"/>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
@@ -15579,6 +15611,8 @@
       <c r="A89" s="64">
         <v>85</v>
       </c>
+      <c r="B89" s="70"/>
+      <c r="C89" s="74"/>
       <c r="G89" s="64"/>
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
@@ -15595,6 +15629,8 @@
       <c r="A90" s="64">
         <v>86</v>
       </c>
+      <c r="B90" s="70"/>
+      <c r="C90" s="74"/>
       <c r="G90" s="64"/>
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
@@ -15611,6 +15647,8 @@
       <c r="A91" s="64">
         <v>87</v>
       </c>
+      <c r="B91" s="70"/>
+      <c r="C91" s="74"/>
       <c r="G91" s="64"/>
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
@@ -15627,6 +15665,8 @@
       <c r="A92" s="64">
         <v>88</v>
       </c>
+      <c r="B92" s="70"/>
+      <c r="C92" s="74"/>
       <c r="G92" s="64"/>
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
@@ -15643,6 +15683,8 @@
       <c r="A93" s="64">
         <v>89</v>
       </c>
+      <c r="B93" s="70"/>
+      <c r="C93" s="74"/>
       <c r="G93" s="64"/>
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
@@ -15659,6 +15701,8 @@
       <c r="A94" s="64">
         <v>90</v>
       </c>
+      <c r="B94" s="70"/>
+      <c r="C94" s="74"/>
       <c r="G94" s="64"/>
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
@@ -17033,7 +17077,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>22400</v>
+        <v>22740</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -17041,7 +17085,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4108</v>
+        <v>4448</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -25872,11 +25916,11 @@
       </c>
       <c r="O16" s="31">
         <f>Apartment13!D16</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P16" s="31">
         <f>Apartment14!D16</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25">
@@ -25934,11 +25978,11 @@
       </c>
       <c r="O17" s="31">
         <f>Apartment13!D17</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P17" s="31">
         <f>Apartment14!D17</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75">
@@ -26577,12 +26621,12 @@
       </c>
       <c r="C17" s="112">
         <f>Apartment13!D4</f>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="D17" s="113"/>
       <c r="E17" s="115">
         <f t="shared" si="0"/>
-        <v>-850</v>
+        <v>-1020</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>57</v>
@@ -26604,12 +26648,12 @@
       </c>
       <c r="C18" s="112">
         <f>Apartment14!D4</f>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="113"/>
       <c r="E18" s="115">
         <f t="shared" si="0"/>
-        <v>-850</v>
+        <v>-1020</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>58</v>
@@ -26816,8 +26860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26875,7 +26919,7 @@
       <c r="C4" s="81"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -27192,7 +27236,9 @@
       <c r="C16" s="82">
         <v>45259</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39">
+        <v>85</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>85</v>
@@ -27217,7 +27263,9 @@
       <c r="C17" s="82">
         <v>45291</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="39">
+        <v>85</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>85</v>
@@ -27228,7 +27276,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="342">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2318,24 +2318,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166017280"/>
-        <c:axId val="166035456"/>
+        <c:axId val="165362304"/>
+        <c:axId val="165392768"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="166017280"/>
+        <c:axId val="165362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166035456"/>
+        <c:crossAx val="165392768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166035456"/>
+        <c:axId val="165392768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2343,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166017280"/>
+        <c:crossAx val="165362304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12950,8 +12950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17012,7 +17012,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17081,11 +17081,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>21018</v>
+        <v>21043</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4448</v>
+        <v>4423</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17444,7 +17444,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>21018</v>
+        <v>21043</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18716,9 +18716,15 @@
       <c r="A75" s="39">
         <v>71</v>
       </c>
-      <c r="B75" s="79"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="64"/>
+      <c r="B75" s="79">
+        <v>45661</v>
+      </c>
+      <c r="C75" s="74">
+        <v>25</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="18.75">
       <c r="A76" s="39">
@@ -26860,7 +26866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>

--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="345">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1069,6 +1069,15 @@
   </si>
   <si>
     <t>الحساب خالص</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر12 /2024</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء الجراج والجنينة 12 ساعة كل يوم لمبتين من عداد البيت شهر 12</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور من 9، 10، 11، 12 (4) شهور /2024</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,6 +1245,13 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1369,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,6 +1724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,6 +1763,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2318,24 +2347,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165362304"/>
-        <c:axId val="165392768"/>
+        <c:axId val="108176128"/>
+        <c:axId val="108177664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="165362304"/>
+        <c:axId val="108176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165392768"/>
+        <c:crossAx val="108177664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165392768"/>
+        <c:axId val="108177664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2372,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165362304"/>
+        <c:crossAx val="108176128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2727,23 +2756,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="103"/>
@@ -3438,23 +3467,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -4128,23 +4157,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="76"/>
@@ -4573,14 +4602,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="133" t="s">
+      <c r="I20" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -4591,14 +4620,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="133" t="s">
+      <c r="I21" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -4636,13 +4665,13 @@
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
       <c r="Q23" s="63"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -4657,13 +4686,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
       <c r="Q24" s="63"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -4678,13 +4707,13 @@
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
       <c r="Q25" s="63"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">
@@ -4868,23 +4897,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -5532,23 +5561,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="67"/>
@@ -6222,23 +6251,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:22" ht="57.75">
       <c r="C3" s="76"/>
@@ -6257,16 +6286,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="123" t="s">
+      <c r="O3" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
     </row>
     <row r="4" spans="1:22" ht="18.75">
       <c r="C4" s="68"/>
@@ -6316,12 +6345,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="124" t="s">
+      <c r="R5" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="127"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -6560,10 +6589,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="129"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="130"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -7020,7 +7049,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7034,23 +7063,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -7077,7 +7106,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -7418,8 +7447,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="96">
+        <v>45661</v>
+      </c>
+      <c r="D17" s="39">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="39">
         <v>200</v>
@@ -7717,23 +7750,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="76"/>
@@ -8404,23 +8437,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -9005,7 +9038,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9019,23 +9052,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -9062,7 +9095,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="99">
         <f>SUM(D6:D2001)</f>
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9306,8 +9339,12 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="96">
+        <v>45665</v>
+      </c>
+      <c r="D14" s="100">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>200</v>
@@ -9327,8 +9364,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="96">
+        <v>45665</v>
+      </c>
+      <c r="D15" s="100">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>200</v>
@@ -9348,8 +9389,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="96">
+        <v>45665</v>
+      </c>
+      <c r="D16" s="100">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>200</v>
@@ -9369,8 +9414,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="96">
+        <v>45665</v>
+      </c>
+      <c r="D17" s="100">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>200</v>
@@ -9669,23 +9718,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -10357,29 +10406,29 @@
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
       <c r="N2" s="46"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="90" customHeight="1">
       <c r="C3" s="11"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
       <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:18" ht="56.25">
@@ -10401,10 +10450,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="16"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
       <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
@@ -10485,10 +10534,10 @@
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="48"/>
     </row>
@@ -10900,23 +10949,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="118"/>
@@ -11588,23 +11637,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="94"/>
@@ -12275,23 +12324,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -12950,8 +12999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView rightToLeft="1" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13045,7 +13094,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>22740</v>
+        <v>23940</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -15557,9 +15606,21 @@
       <c r="A86" s="64">
         <v>82</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="74"/>
-      <c r="G86" s="64"/>
+      <c r="B86" s="70">
+        <v>45661</v>
+      </c>
+      <c r="C86" s="74">
+        <v>200</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" s="64">
+        <v>8</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>342</v>
+      </c>
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="63"/>
@@ -15575,13 +15636,26 @@
       <c r="A87" s="64">
         <v>83</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="74"/>
-      <c r="G87" s="64"/>
+      <c r="B87" s="136">
+        <v>45661</v>
+      </c>
+      <c r="C87" s="137">
+        <v>800</v>
+      </c>
+      <c r="D87" s="138"/>
+      <c r="E87" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87" s="139">
+        <v>5</v>
+      </c>
+      <c r="G87" s="139" t="s">
+        <v>344</v>
+      </c>
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
+      <c r="K87" s="122"/>
       <c r="L87" s="63"/>
       <c r="M87" s="63"/>
       <c r="N87" s="63"/>
@@ -15593,13 +15667,26 @@
       <c r="A88" s="64">
         <v>84</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="74"/>
-      <c r="G88" s="64"/>
+      <c r="B88" s="136">
+        <v>45661</v>
+      </c>
+      <c r="C88" s="137">
+        <v>200</v>
+      </c>
+      <c r="D88" s="138"/>
+      <c r="E88" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="139">
+        <v>5</v>
+      </c>
+      <c r="G88" s="139" t="s">
+        <v>284</v>
+      </c>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
+      <c r="K88" s="122"/>
       <c r="L88" s="63"/>
       <c r="M88" s="63"/>
       <c r="N88" s="63"/>
@@ -17026,21 +17113,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
@@ -17077,15 +17164,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>22740</v>
+        <v>23940</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>21043</v>
+        <v>21063</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>4423</v>
+        <v>5603</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -17443,8 +17530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView rightToLeft="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17457,21 +17544,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="26.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="B3" s="77" t="s">
@@ -17479,7 +17566,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>21043</v>
+        <v>21063</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -18730,9 +18817,15 @@
       <c r="A76" s="39">
         <v>72</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="64"/>
+      <c r="B76" s="79">
+        <v>45661</v>
+      </c>
+      <c r="C76" s="74">
+        <v>20</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="18.75">
       <c r="A77" s="39">
@@ -19015,14 +19108,14 @@
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
       <c r="N2" s="46"/>
       <c r="O2" s="22"/>
     </row>
@@ -19055,12 +19148,12 @@
       <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
       <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
@@ -19158,10 +19251,10 @@
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="48"/>
     </row>
@@ -19573,38 +19666,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -20203,38 +20296,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -20814,38 +20907,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="26.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
     </row>
     <row r="3" spans="1:32" ht="18.75">
       <c r="B3" s="10"/>
@@ -25126,8 +25219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25142,37 +25235,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="26"/>
@@ -25766,7 +25859,7 @@
       </c>
       <c r="G14" s="31">
         <f>Apartment5!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H14" s="31">
         <f>Apartment6!D14</f>
@@ -25828,7 +25921,7 @@
       </c>
       <c r="G15" s="31">
         <f>Apartment5!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="31">
         <f>Apartment6!D15</f>
@@ -25890,7 +25983,7 @@
       </c>
       <c r="G16" s="31">
         <f>Apartment5!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H16" s="31">
         <f>Apartment6!D16</f>
@@ -25952,7 +26045,7 @@
       </c>
       <c r="G17" s="31">
         <f>Apartment5!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="31">
         <f>Apartment6!D17</f>
@@ -25964,7 +26057,7 @@
       </c>
       <c r="J17" s="31">
         <f>Apartment8!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K17" s="31">
         <f>Apartment9!D17</f>
@@ -26242,28 +26335,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="102"/>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -26412,12 +26505,12 @@
       </c>
       <c r="C9" s="112">
         <f>Apartment5!D4</f>
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="D9" s="113"/>
       <c r="E9" s="115">
         <f t="shared" si="0"/>
-        <v>-1600</v>
+        <v>-2400</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>123</v>
@@ -26493,12 +26586,12 @@
       </c>
       <c r="C12" s="112">
         <f>Apartment8!D4</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="D12" s="113"/>
       <c r="E12" s="115">
         <f t="shared" si="0"/>
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>124</v>
@@ -26882,23 +26975,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="109"/>
